--- a/100runs/run005/NotionalETEOutput005.xlsx
+++ b/100runs/run005/NotionalETEOutput005.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="19">
   <si>
     <t>uniqueid</t>
   </si>
@@ -52,10 +52,25 @@
     <t>Missile_BRAVER_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER_445.MISSILE_BRAVER_445</t>
+    <t>Missile_HELLMASKER_State_Update</t>
+  </si>
+  <si>
+    <t>MISSILE_BRAVER_19.MISSILE_BRAVER_19</t>
+  </si>
+  <si>
+    <t>MISSILE_HELLMASKER_171.MISSILE_HELLMASKER_171</t>
+  </si>
+  <si>
+    <t>MISSILE_HELLMASKER_281.MISSILE_HELLMASKER_281</t>
+  </si>
+  <si>
+    <t>MISSILE_HELLMASKER_201.MISSILE_HELLMASKER_201</t>
   </si>
   <si>
     <t>MISSILE_BRAVER</t>
+  </si>
+  <si>
+    <t>MISSILE_HELLMASKER</t>
   </si>
 </sst>
 </file>
@@ -413,7 +428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K54"/>
+  <dimension ref="A1:K213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -462,31 +477,31 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>311.6466845696335</v>
+        <v>1116576.285330326</v>
       </c>
       <c r="G2">
-        <v>-86.06363899724008</v>
+        <v>4841120.13283166</v>
       </c>
       <c r="H2">
-        <v>799.8478975733702</v>
+        <v>3985237.76214974</v>
       </c>
       <c r="I2">
-        <v>-1271.37294477104</v>
+        <v>1114861.955177019</v>
       </c>
       <c r="J2">
-        <v>1667.922805129075</v>
+        <v>4843227.610381108</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3984367.581023088</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -497,31 +512,31 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E3">
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>311.6466845696335</v>
+        <v>1116576.285330326</v>
       </c>
       <c r="G3">
-        <v>-86.06363899724008</v>
+        <v>4841120.13283166</v>
       </c>
       <c r="H3">
-        <v>799.8478975733702</v>
+        <v>3985237.76214974</v>
       </c>
       <c r="I3">
-        <v>-1246.272657509076</v>
+        <v>1114891.569189361</v>
       </c>
       <c r="J3">
-        <v>1627.349258367376</v>
+        <v>4843178.958749318</v>
       </c>
       <c r="K3">
-        <v>163.1484275417686</v>
+        <v>3984671.376806136</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -532,31 +547,31 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>311.6466845696335</v>
+        <v>1116576.285330326</v>
       </c>
       <c r="G4">
-        <v>-86.06363899724008</v>
+        <v>4841120.13283166</v>
       </c>
       <c r="H4">
-        <v>799.8478975733702</v>
+        <v>3985237.76214974</v>
       </c>
       <c r="I4">
-        <v>-1220.554298765127</v>
+        <v>1114921.912419512</v>
       </c>
       <c r="J4">
-        <v>1586.775711605678</v>
+        <v>4843130.307117528</v>
       </c>
       <c r="K4">
-        <v>318.1615266407604</v>
+        <v>3984960.023938892</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -567,31 +582,31 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>311.6466845696335</v>
+        <v>1116576.285330326</v>
       </c>
       <c r="G5">
-        <v>-86.06363899724008</v>
+        <v>4841120.13283166</v>
       </c>
       <c r="H5">
-        <v>799.8478975733702</v>
+        <v>3985237.76214974</v>
       </c>
       <c r="I5">
-        <v>-1194.202649097565</v>
+        <v>1114953.002823791</v>
       </c>
       <c r="J5">
-        <v>1546.20216484398</v>
+        <v>4843081.655485739</v>
       </c>
       <c r="K5">
-        <v>465.0392972969763</v>
+        <v>3985233.522421355</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -602,31 +617,31 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>311.6466845696335</v>
+        <v>1116576.285330326</v>
       </c>
       <c r="G6">
-        <v>-86.06363899724008</v>
+        <v>4841120.13283166</v>
       </c>
       <c r="H6">
-        <v>799.8478975733702</v>
+        <v>3985237.76214974</v>
       </c>
       <c r="I6">
-        <v>-1167.202114300013</v>
+        <v>1114984.858800672</v>
       </c>
       <c r="J6">
-        <v>1505.628618082282</v>
+        <v>4843033.003853951</v>
       </c>
       <c r="K6">
-        <v>603.7817395104156</v>
+        <v>3985491.872253526</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -637,31 +652,31 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E7">
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>311.6466845696335</v>
+        <v>1116576.285330326</v>
       </c>
       <c r="G7">
-        <v>-86.06363899724008</v>
+        <v>4841120.13283166</v>
       </c>
       <c r="H7">
-        <v>799.8478975733702</v>
+        <v>3985237.76214974</v>
       </c>
       <c r="I7">
-        <v>-1139.536716173106</v>
+        <v>1115017.499201677</v>
       </c>
       <c r="J7">
-        <v>1465.055071320584</v>
+        <v>4842984.352222161</v>
       </c>
       <c r="K7">
-        <v>734.3888532810793</v>
+        <v>3985735.073435403</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -672,31 +687,31 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E8">
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>311.6466845696335</v>
+        <v>1116576.285330326</v>
       </c>
       <c r="G8">
-        <v>-86.06363899724008</v>
+        <v>4841120.13283166</v>
       </c>
       <c r="H8">
-        <v>799.8478975733702</v>
+        <v>3985237.76214974</v>
       </c>
       <c r="I8">
-        <v>-1111.190083069025</v>
+        <v>1115050.943342529</v>
       </c>
       <c r="J8">
-        <v>1424.481524558885</v>
+        <v>4842935.700590371</v>
       </c>
       <c r="K8">
-        <v>856.8606386089665</v>
+        <v>3985963.125966988</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -707,31 +722,31 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E9">
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>311.6466845696335</v>
+        <v>1116576.285330326</v>
       </c>
       <c r="G9">
-        <v>-86.06363899724008</v>
+        <v>4841120.13283166</v>
       </c>
       <c r="H9">
-        <v>799.8478975733702</v>
+        <v>3985237.76214974</v>
       </c>
       <c r="I9">
-        <v>-1082.14544020318</v>
+        <v>1115085.21101458</v>
       </c>
       <c r="J9">
-        <v>1383.907977797187</v>
+        <v>4842887.048958582</v>
       </c>
       <c r="K9">
-        <v>971.1970954940775</v>
+        <v>3986176.029848281</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -742,31 +757,31 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E10">
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>311.6466845696335</v>
+        <v>1116576.285330326</v>
       </c>
       <c r="G10">
-        <v>-71.85210966673509</v>
+        <v>4841136.645635759</v>
       </c>
       <c r="H10">
-        <v>799.8478975733702</v>
+        <v>3985237.76214974</v>
       </c>
       <c r="I10">
-        <v>-1052.385599727345</v>
+        <v>1115120.32249653</v>
       </c>
       <c r="J10">
-        <v>1343.334431035489</v>
+        <v>4842838.397326793</v>
       </c>
       <c r="K10">
-        <v>1077.398223936412</v>
+        <v>3986373.78507928</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -777,31 +792,31 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E11">
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>241.8741828246089</v>
+        <v>1116527.604863279</v>
       </c>
       <c r="G11">
-        <v>-57.6405803362301</v>
+        <v>4841153.158439856</v>
       </c>
       <c r="H11">
-        <v>985.4072275892451</v>
+        <v>3985437.017028188</v>
       </c>
       <c r="I11">
-        <v>-1021.892950558343</v>
+        <v>1115156.298566421</v>
       </c>
       <c r="J11">
-        <v>1302.760884273791</v>
+        <v>4842789.745695003</v>
       </c>
       <c r="K11">
-        <v>1175.46402393597</v>
+        <v>3986556.391659987</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -812,31 +827,31 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E12">
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>200.8863382159311</v>
+        <v>1116499.007530965</v>
       </c>
       <c r="G12">
-        <v>-43.42905100572512</v>
+        <v>4841169.671243955</v>
       </c>
       <c r="H12">
-        <v>1095.935854411112</v>
+        <v>3985555.703424073</v>
       </c>
       <c r="I12">
-        <v>-990.6494479562783</v>
+        <v>1115193.160513937</v>
       </c>
       <c r="J12">
-        <v>1262.187337512093</v>
+        <v>4842741.094063214</v>
       </c>
       <c r="K12">
-        <v>1265.394495492752</v>
+        <v>3986723.849590402</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -847,31 +862,31 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E13">
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>175.0118036785123</v>
+        <v>1116480.954796802</v>
       </c>
       <c r="G13">
-        <v>-29.21752167522013</v>
+        <v>4841186.184048054</v>
       </c>
       <c r="H13">
-        <v>1174.923193656399</v>
+        <v>3985640.520569505</v>
       </c>
       <c r="I13">
-        <v>-958.6366028461322</v>
+        <v>1115230.930152997</v>
       </c>
       <c r="J13">
-        <v>1221.613790750394</v>
+        <v>4842692.442431425</v>
       </c>
       <c r="K13">
-        <v>1347.189638606759</v>
+        <v>3986876.158870523</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -882,31 +897,31 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E14">
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>156.9670083230183</v>
+        <v>1116468.364893277</v>
       </c>
       <c r="G14">
-        <v>-15.00599234471514</v>
+        <v>4841202.696852151</v>
       </c>
       <c r="H14">
-        <v>1236.430592409206</v>
+        <v>3985706.567635212</v>
       </c>
       <c r="I14">
-        <v>-925.8354708764266</v>
+        <v>1115269.629834671</v>
       </c>
       <c r="J14">
-        <v>1181.040243988696</v>
+        <v>4842643.790799635</v>
       </c>
       <c r="K14">
-        <v>1420.849453277988</v>
+        <v>3987013.319500352</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -917,31 +932,31 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E15">
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>143.5050506078546</v>
+        <v>1116458.972448223</v>
       </c>
       <c r="G15">
-        <v>-0.7944630142101646</v>
+        <v>4841219.209656251</v>
       </c>
       <c r="H15">
-        <v>1286.809922936483</v>
+        <v>3985760.665305104</v>
       </c>
       <c r="I15">
-        <v>-892.2266412084551</v>
+        <v>1115309.282460404</v>
       </c>
       <c r="J15">
-        <v>1140.466697226998</v>
+        <v>4842595.139167846</v>
       </c>
       <c r="K15">
-        <v>1486.373939506442</v>
+        <v>3987135.331479889</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -952,31 +967,31 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E16">
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>132.9796795812583</v>
+        <v>1116451.628867807</v>
       </c>
       <c r="G16">
-        <v>13.41706631629483</v>
+        <v>4841235.722460348</v>
       </c>
       <c r="H16">
-        <v>1329.477538380198</v>
+        <v>3985806.482082563</v>
       </c>
       <c r="I16">
-        <v>-857.7902250294661</v>
+        <v>1115349.911495566</v>
       </c>
       <c r="J16">
-        <v>1099.8931504653</v>
+        <v>4842546.487536056</v>
       </c>
       <c r="K16">
-        <v>1543.763097292119</v>
+        <v>3987242.194809133</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -987,31 +1002,31 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E17">
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>124.4638880433479</v>
+        <v>1116445.687376546</v>
       </c>
       <c r="G17">
-        <v>27.62859564679981</v>
+        <v>4841252.235264447</v>
       </c>
       <c r="H17">
-        <v>1366.48392384675</v>
+        <v>3985846.219792531</v>
       </c>
       <c r="I17">
-        <v>-822.5058437829913</v>
+        <v>1115391.54098334</v>
       </c>
       <c r="J17">
-        <v>1059.319603703602</v>
+        <v>4842497.835904267</v>
       </c>
       <c r="K17">
-        <v>1593.016926635019</v>
+        <v>3987333.909488083</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1022,31 +1037,31 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E18">
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>117.3927467203698</v>
+        <v>1116440.753821728</v>
       </c>
       <c r="G18">
-        <v>41.84012497730479</v>
+        <v>4841268.748068545</v>
       </c>
       <c r="H18">
-        <v>1399.156900295008</v>
+        <v>3985881.304258239</v>
       </c>
       <c r="I18">
-        <v>-786.3526171093579</v>
+        <v>1115434.195558952</v>
       </c>
       <c r="J18">
-        <v>1018.746056941903</v>
+        <v>4842449.184272477</v>
       </c>
       <c r="K18">
-        <v>1634.135427535144</v>
+        <v>3987410.475516742</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1057,31 +1072,31 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E19">
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>111.4004864864244</v>
+        <v>1116436.573005223</v>
       </c>
       <c r="G19">
-        <v>56.05165430780979</v>
+        <v>4841285.260872643</v>
       </c>
       <c r="H19">
-        <v>1428.405788962614</v>
+        <v>3985912.711915055</v>
       </c>
       <c r="I19">
-        <v>-749.3091504892445</v>
+        <v>1115477.900464248</v>
       </c>
       <c r="J19">
-        <v>978.172510180205</v>
+        <v>4842400.532640689</v>
       </c>
       <c r="K19">
-        <v>1667.118599992493</v>
+        <v>3987471.892895108</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1092,31 +1107,31 @@
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E20">
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>106.2387389019838</v>
+        <v>1116432.971639687</v>
       </c>
       <c r="G20">
-        <v>70.26318363831477</v>
+        <v>4841301.773676742</v>
       </c>
       <c r="H20">
-        <v>1454.880678588961</v>
+        <v>3985941.140832717</v>
       </c>
       <c r="I20">
-        <v>-711.3535225829753</v>
+        <v>1115522.681562629</v>
       </c>
       <c r="J20">
-        <v>937.5989634185069</v>
+        <v>4842351.881008899</v>
       </c>
       <c r="K20">
-        <v>1691.966444007065</v>
+        <v>3987518.16162318</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1127,31 +1142,31 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E21">
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>101.732266544317</v>
+        <v>1116429.827461485</v>
       </c>
       <c r="G21">
-        <v>84.47471296881974</v>
+        <v>4841318.28648084</v>
       </c>
       <c r="H21">
-        <v>1479.062467302832</v>
+        <v>3985967.107402926</v>
       </c>
       <c r="I21">
-        <v>-672.4632722580519</v>
+        <v>1115568.565354359</v>
       </c>
       <c r="J21">
-        <v>897.0254166568086</v>
+        <v>4842303.22937711</v>
       </c>
       <c r="K21">
-        <v>1708.678959578861</v>
+        <v>3987549.281700961</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1162,31 +1177,31 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E22">
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>97.75347737996799</v>
+        <v>1116427.051449303</v>
       </c>
       <c r="G22">
-        <v>98.68624229932475</v>
+        <v>4841334.799284939</v>
       </c>
       <c r="H22">
-        <v>1501.31691520281</v>
+        <v>3985991.00438138</v>
       </c>
       <c r="I22">
-        <v>-632.6153852972511</v>
+        <v>1115615.578992249</v>
       </c>
       <c r="J22">
-        <v>856.4518698951106</v>
+        <v>4842254.57774532</v>
       </c>
       <c r="K22">
-        <v>1717.256146707881</v>
+        <v>3987565.253128449</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1197,31 +1212,31 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E23">
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>94.20699589820761</v>
+        <v>1116424.577059384</v>
       </c>
       <c r="G23">
-        <v>112.8977716298297</v>
+        <v>4841351.312089037</v>
       </c>
       <c r="H23">
-        <v>1521.928698741594</v>
+        <v>3986013.1374556</v>
       </c>
       <c r="I23">
-        <v>-591.7862807794245</v>
+        <v>1115663.750297719</v>
       </c>
       <c r="J23">
-        <v>815.8783231334122</v>
+        <v>4842205.926113531</v>
       </c>
       <c r="K23">
-        <v>1717.698005394124</v>
+        <v>3987566.075905644</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1232,31 +1247,31 @@
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E24">
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>91.01992219457442</v>
+        <v>1116422.353429265</v>
       </c>
       <c r="G24">
-        <v>127.1093009603347</v>
+        <v>4841367.824893136</v>
       </c>
       <c r="H24">
-        <v>1541.12373705619</v>
+        <v>3986033.749219104</v>
       </c>
       <c r="I24">
-        <v>-549.9517971249339</v>
+        <v>1115713.10777727</v>
       </c>
       <c r="J24">
-        <v>775.304776371714</v>
+        <v>4842157.274481741</v>
       </c>
       <c r="K24">
-        <v>1710.004535637592</v>
+        <v>3987551.750032546</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1267,31 +1282,31 @@
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E25">
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>88.13545975291777</v>
+        <v>1116420.340931858</v>
       </c>
       <c r="G25">
-        <v>141.3208302908397</v>
+        <v>4841384.337697234</v>
       </c>
       <c r="H25">
-        <v>1559.084326316629</v>
+        <v>3986053.035422765</v>
       </c>
       <c r="I25">
-        <v>-507.0871777974704</v>
+        <v>1115763.680639347</v>
       </c>
       <c r="J25">
-        <v>734.7312296100159</v>
+        <v>4842108.622849952</v>
       </c>
       <c r="K25">
-        <v>1694.175737438283</v>
+        <v>3987522.275509155</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1302,31 +1317,31 @@
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E26">
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>85.50861810865742</v>
+        <v>1116418.508177192</v>
       </c>
       <c r="G26">
-        <v>155.5323596213447</v>
+        <v>4841400.850501332</v>
       </c>
       <c r="H26">
-        <v>1575.959694714956</v>
+        <v>3986071.156308838</v>
       </c>
       <c r="I26">
-        <v>-463.167056653795</v>
+        <v>1115815.498811627</v>
       </c>
       <c r="J26">
-        <v>694.1576828483176</v>
+        <v>4842059.971218163</v>
       </c>
       <c r="K26">
-        <v>1670.211610796197</v>
+        <v>3987477.652335472</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1337,31 +1352,31 @@
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E27">
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>83.10323735640168</v>
+        <v>1116416.829936402</v>
       </c>
       <c r="G27">
-        <v>169.7438889518497</v>
+        <v>4841417.36330543</v>
       </c>
       <c r="H27">
-        <v>1591.873546384521</v>
+        <v>3986088.244711667</v>
       </c>
       <c r="I27">
-        <v>-418.1654429327272</v>
+        <v>1115868.592958727</v>
       </c>
       <c r="J27">
-        <v>653.5841360866193</v>
+        <v>4842011.319586373</v>
       </c>
       <c r="K27">
-        <v>1638.112155711336</v>
+        <v>3987417.880511497</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1372,31 +1387,31 @@
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E28">
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>80.88987984772601</v>
+        <v>1116415.285670759</v>
       </c>
       <c r="G28">
-        <v>183.9554182823547</v>
+        <v>4841433.876109529</v>
       </c>
       <c r="H28">
-        <v>1606.929569625452</v>
+        <v>3986104.411972459</v>
       </c>
       <c r="I28">
-        <v>-372.0557058745038</v>
+        <v>1115922.994500353</v>
       </c>
       <c r="J28">
-        <v>613.0105893249213</v>
+        <v>4841962.667954584</v>
       </c>
       <c r="K28">
-        <v>1597.877372183698</v>
+        <v>3987342.960037228</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1407,31 +1422,31 @@
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E29">
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>78.84430565038683</v>
+        <v>1116413.858467996</v>
       </c>
       <c r="G29">
-        <v>198.1669476128597</v>
+        <v>4841450.388913628</v>
       </c>
       <c r="H29">
-        <v>1621.215535005547</v>
+        <v>3986119.752339851</v>
       </c>
       <c r="I29">
-        <v>-324.8105589614014</v>
+        <v>1115978.735629894</v>
       </c>
       <c r="J29">
-        <v>572.4370425632229</v>
+        <v>4841914.016322794</v>
       </c>
       <c r="K29">
-        <v>1549.507260213284</v>
+        <v>3987252.890912668</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1442,31 +1457,31 @@
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E30">
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>76.94635003250683</v>
+        <v>1116412.534259123</v>
       </c>
       <c r="G30">
-        <v>212.3784769433646</v>
+        <v>4841466.901717725</v>
       </c>
       <c r="H30">
-        <v>1634.806395513925</v>
+        <v>3986134.346298874</v>
       </c>
       <c r="I30">
-        <v>-276.4020437703021</v>
+        <v>1116035.849333469</v>
       </c>
       <c r="J30">
-        <v>531.8634958015247</v>
+        <v>4841865.364691005</v>
       </c>
       <c r="K30">
-        <v>1493.001819800094</v>
+        <v>3987147.673137814</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1477,31 +1492,31 @@
         <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D31" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E31">
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>75.17908349185493</v>
+        <v>1116411.301232379</v>
       </c>
       <c r="G31">
-        <v>226.5900062738696</v>
+        <v>4841483.414521825</v>
       </c>
       <c r="H31">
-        <v>1647.766666891685</v>
+        <v>3986148.263126973</v>
       </c>
       <c r="I31">
-        <v>-226.8015134276395</v>
+        <v>1116094.369409451</v>
       </c>
       <c r="J31">
-        <v>491.2899490398266</v>
+        <v>4841816.713059215</v>
       </c>
       <c r="K31">
-        <v>1428.361050944128</v>
+        <v>3987027.306712668</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1512,31 +1527,31 @@
         <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D32" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E32">
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>73.52817400677911</v>
+        <v>1116410.149388275</v>
       </c>
       <c r="G32">
-        <v>240.8015356043746</v>
+        <v>4841499.927325923</v>
       </c>
       <c r="H32">
-        <v>1660.152279832855</v>
+        <v>3986161.56288291</v>
       </c>
       <c r="I32">
-        <v>-175.9796156569401</v>
+        <v>1116154.330488465</v>
       </c>
       <c r="J32">
-        <v>450.7164022781283</v>
+        <v>4841768.061427427</v>
       </c>
       <c r="K32">
-        <v>1355.584953645385</v>
+        <v>3986891.791637229</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1547,31 +1562,31 @@
         <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E33">
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>71.98139641513693</v>
+        <v>1116409.07019728</v>
       </c>
       <c r="G33">
-        <v>255.0130649348796</v>
+        <v>4841516.44013002</v>
       </c>
       <c r="H33">
-        <v>1672.012038714155</v>
+        <v>3986174.297973159</v>
       </c>
       <c r="I33">
-        <v>-123.9062754089256</v>
+        <v>1116215.768053888</v>
       </c>
       <c r="J33">
-        <v>410.1428555164302</v>
+        <v>4841719.409795637</v>
       </c>
       <c r="K33">
-        <v>1274.673527903866</v>
+        <v>3986741.127911497</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1582,31 +1597,31 @@
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D34" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E34">
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>70.52825044147977</v>
+        <v>1116408.056333323</v>
       </c>
       <c r="G34">
-        <v>269.2245942653846</v>
+        <v>4841532.952934119</v>
       </c>
       <c r="H34">
-        <v>1683.388783083099</v>
+        <v>3986186.514399119</v>
       </c>
       <c r="I34">
-        <v>-70.55067706389814</v>
+        <v>1116278.718462838</v>
       </c>
       <c r="J34">
-        <v>369.5693087547319</v>
+        <v>4841670.758163848</v>
       </c>
       <c r="K34">
-        <v>1185.626773719571</v>
+        <v>3986575.315535473</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1617,31 +1632,31 @@
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D35" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E35">
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>69.15966005068574</v>
+        <v>1116407.10146403</v>
       </c>
       <c r="G35">
-        <v>283.4361235958896</v>
+        <v>4841549.465738217</v>
       </c>
       <c r="H35">
-        <v>1694.320321749062</v>
+        <v>3986198.252760149</v>
       </c>
       <c r="I35">
-        <v>-15.88124619587508</v>
+        <v>1116343.218967695</v>
       </c>
       <c r="J35">
-        <v>328.9957619930336</v>
+        <v>4841622.106532058</v>
       </c>
       <c r="K35">
-        <v>1088.444691092499</v>
+        <v>3986394.354509156</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1652,31 +1667,31 @@
         <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D36" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E36">
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>67.86773443533338</v>
+        <v>1116406.200083962</v>
       </c>
       <c r="G36">
-        <v>297.6476529263946</v>
+        <v>4841565.978542316</v>
       </c>
       <c r="H36">
-        <v>1704.840190894303</v>
+        <v>3986209.54906763</v>
       </c>
       <c r="I36">
-        <v>40.13436911231904</v>
+        <v>1116409.307738144</v>
       </c>
       <c r="J36">
-        <v>288.4222152313355</v>
+        <v>4841573.454900268</v>
       </c>
       <c r="K36">
-        <v>983.127280022652</v>
+        <v>3986198.244832546</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1687,31 +1702,31 @@
         <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D37" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E37">
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>66.64557624650404</v>
+        <v>1116405.347380821</v>
       </c>
       <c r="G37">
-        <v>311.8591822568995</v>
+        <v>4841582.491346414</v>
       </c>
       <c r="H37">
-        <v>1714.978274549439</v>
+        <v>3986220.435411239</v>
       </c>
       <c r="I37">
-        <v>97.52931741405621</v>
+        <v>1116477.023883766</v>
       </c>
       <c r="J37">
-        <v>247.8486684696373</v>
+        <v>4841524.803268479</v>
       </c>
       <c r="K37">
-        <v>869.6745405100282</v>
+        <v>3985986.986505644</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1722,31 +1737,31 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D38" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E38">
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>65.48712641866986</v>
+        <v>1116404.539127178</v>
       </c>
       <c r="G38">
-        <v>326.0707115874046</v>
+        <v>4841599.004150513</v>
       </c>
       <c r="H38">
-        <v>1724.761316371086</v>
+        <v>3986230.940508497</v>
       </c>
       <c r="I38">
-        <v>156.3375635153399</v>
+        <v>1116546.407477175</v>
       </c>
       <c r="J38">
-        <v>207.2751217079392</v>
+        <v>4841476.151636691</v>
       </c>
       <c r="K38">
-        <v>748.0864725546285</v>
+        <v>3985760.579528449</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1757,31 +1772,31 @@
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D39" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E39">
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>64.38703761540884</v>
+        <v>1116403.771592184</v>
       </c>
       <c r="G39">
-        <v>340.2822409179095</v>
+        <v>4841615.516954611</v>
       </c>
       <c r="H39">
-        <v>1734.213344800903</v>
+        <v>3986241.09016131</v>
       </c>
       <c r="I39">
-        <v>216.5939085742728</v>
+        <v>1116617.499577741</v>
       </c>
       <c r="J39">
-        <v>166.7015749462409</v>
+        <v>4841427.500004901</v>
       </c>
       <c r="K39">
-        <v>618.3630761564517</v>
+        <v>3985519.023900961</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1792,31 +1807,31 @@
         <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D40" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E40">
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>63.34057026157343</v>
+        <v>1116403.041469023</v>
       </c>
       <c r="G40">
-        <v>354.4937702484145</v>
+        <v>4841632.029758709</v>
       </c>
       <c r="H40">
-        <v>1743.356028623833</v>
+        <v>3986250.907637767</v>
       </c>
       <c r="I40">
-        <v>278.3340106954615</v>
+        <v>1116690.342255879</v>
       </c>
       <c r="J40">
-        <v>126.1280281845426</v>
+        <v>4841378.848373111</v>
       </c>
       <c r="K40">
-        <v>480.504351315499</v>
+        <v>3985262.319623181</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1827,31 +1842,31 @@
         <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D41" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E41">
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>62.3435065490083</v>
+        <v>1116402.345814919</v>
       </c>
       <c r="G41">
-        <v>368.7052995789195</v>
+        <v>4841648.542562808</v>
       </c>
       <c r="H41">
-        <v>1752.208976165995</v>
+        <v>3986260.413993423</v>
       </c>
       <c r="I41">
-        <v>341.594406031531</v>
+        <v>1116764.978617953</v>
       </c>
       <c r="J41">
-        <v>85.55448142284452</v>
+        <v>4841330.196741322</v>
       </c>
       <c r="K41">
-        <v>334.5102980317704</v>
+        <v>3984990.466695108</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1862,31 +1877,31 @@
         <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E42">
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>61.39207885655937</v>
+        <v>1116401.682001192</v>
       </c>
       <c r="G42">
-        <v>382.9168289094245</v>
+        <v>4841665.055366906</v>
       </c>
       <c r="H42">
-        <v>1760.789988524201</v>
+        <v>3986269.628343218</v>
       </c>
       <c r="I42">
-        <v>406.412530404256</v>
+        <v>1116841.452831778</v>
       </c>
       <c r="J42">
-        <v>44.98093466114624</v>
+        <v>4841281.545109533</v>
       </c>
       <c r="K42">
-        <v>180.3809163052652</v>
+        <v>3984703.465116742</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1897,31 +1912,31 @@
         <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D43" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E43">
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>60.4829098141276</v>
+        <v>1116401.047671441</v>
       </c>
       <c r="G43">
-        <v>397.1283582399295</v>
+        <v>4841681.568171005</v>
       </c>
       <c r="H43">
-        <v>1769.115275050065</v>
+        <v>3986278.568092864</v>
       </c>
       <c r="I43">
-        <v>472.8267414580779</v>
+        <v>1116919.810152764</v>
       </c>
       <c r="J43">
-        <v>4.407387899447957</v>
+        <v>4841232.893477743</v>
       </c>
       <c r="K43">
-        <v>18.11620613598376</v>
+        <v>3984401.314888084</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1932,31 +1947,31 @@
         <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D44" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E44">
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>59.6129618370525</v>
+        <v>1116400.440706337</v>
       </c>
       <c r="G44">
-        <v>411.3398875704344</v>
+        <v>4841698.080975103</v>
       </c>
       <c r="H44">
-        <v>1777.199637645151</v>
+        <v>3986287.249136743</v>
       </c>
       <c r="I44">
-        <v>540.8763413591457</v>
+        <v>1117000.096950692</v>
       </c>
       <c r="J44">
-        <v>-36.16615886225014</v>
+        <v>4841184.241845953</v>
       </c>
       <c r="K44">
-        <v>-152.2838324760734</v>
+        <v>3984084.016009133</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1967,31 +1982,31 @@
         <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D45" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E45">
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>58.77949441215255</v>
+        <v>1116399.859193814</v>
       </c>
       <c r="G45">
-        <v>425.5514169009394</v>
+        <v>4841714.593779202</v>
       </c>
       <c r="H45">
-        <v>1785.0566291322</v>
+        <v>3986295.686027971</v>
       </c>
       <c r="I45">
-        <v>610.6016000532939</v>
+        <v>1117082.360737156</v>
       </c>
       <c r="J45">
-        <v>-76.73970562394841</v>
+        <v>4841135.590214165</v>
       </c>
       <c r="K45">
-        <v>-330.8191995309073</v>
+        <v>3983751.56847989</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2002,31 +2017,31 @@
         <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D46" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E46">
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>57.98002776678457</v>
+        <v>1116399.301403729</v>
       </c>
       <c r="G46">
-        <v>439.7629462314445</v>
+        <v>4841731.106583299</v>
       </c>
       <c r="H46">
-        <v>1792.698689958896</v>
+        <v>3986303.892125186</v>
       </c>
       <c r="I46">
-        <v>682.0437790967239</v>
+        <v>1117166.650193681</v>
       </c>
       <c r="J46">
-        <v>-117.3132523856467</v>
+        <v>4841086.938582375</v>
       </c>
       <c r="K46">
-        <v>-517.4898950285179</v>
+        <v>3983403.972300353</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2037,31 +2052,31 @@
         <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D47" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E47">
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>57.21231182368359</v>
+        <v>1116398.765766196</v>
       </c>
       <c r="G47">
-        <v>453.9744755619494</v>
+        <v>4841747.619387398</v>
       </c>
       <c r="H47">
-        <v>1800.137266696912</v>
+        <v>3986311.879719793</v>
       </c>
       <c r="I47">
-        <v>755.2451560734988</v>
+        <v>1117253.015200527</v>
       </c>
       <c r="J47">
-        <v>-157.886799147345</v>
+        <v>4841038.286950585</v>
       </c>
       <c r="K47">
-        <v>-712.2959189689044</v>
+        <v>3983041.227470524</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2072,31 +2087,31 @@
         <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D48" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E48">
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>56.47429955632477</v>
+        <v>1116398.250853</v>
       </c>
       <c r="G48">
-        <v>468.1860048924544</v>
+        <v>4841764.132191497</v>
       </c>
       <c r="H48">
-        <v>1807.382915170117</v>
+        <v>3986319.660146709</v>
       </c>
       <c r="I48">
-        <v>830.2490496142944</v>
+        <v>1117341.506866213</v>
       </c>
       <c r="J48">
-        <v>-198.4603459090429</v>
+        <v>4840989.635318796</v>
       </c>
       <c r="K48">
-        <v>-915.2372713520657</v>
+        <v>3982663.333990402</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2107,31 +2122,31 @@
         <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D49" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E49">
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>55.76412402629588</v>
+        <v>1116397.755361573</v>
       </c>
       <c r="G49">
-        <v>482.3975342229594</v>
+        <v>4841780.644995594</v>
       </c>
       <c r="H49">
-        <v>1814.445390544091</v>
+        <v>3986327.243881098</v>
       </c>
       <c r="I49">
-        <v>907.0998450312162</v>
+        <v>1117432.177557755</v>
       </c>
       <c r="J49">
-        <v>-239.0338926707412</v>
+        <v>4840940.983687007</v>
       </c>
       <c r="K49">
-        <v>-1126.313952178004</v>
+        <v>3982270.291859988</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2142,31 +2157,31 @@
         <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D50" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E50">
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>55.08007851619285</v>
+        <v>1116397.278101132</v>
       </c>
       <c r="G50">
-        <v>496.6090635534644</v>
+        <v>4841797.157799693</v>
       </c>
       <c r="H50">
-        <v>1821.333726306488</v>
+        <v>3986334.64062318</v>
       </c>
       <c r="I50">
-        <v>985.8430205838438</v>
+        <v>1117525.080931662</v>
       </c>
       <c r="J50">
-        <v>-279.6074394324394</v>
+        <v>4840892.332055217</v>
       </c>
       <c r="K50">
-        <v>-1345.52596144672</v>
+        <v>3981862.101079281</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2177,31 +2192,31 @@
         <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D51" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E51">
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>54.42059927674605</v>
+        <v>1116396.817980647</v>
       </c>
       <c r="G51">
-        <v>510.8205928839693</v>
+        <v>4841813.670603792</v>
       </c>
       <c r="H51">
-        <v>1828.056303742625</v>
+        <v>3986341.859372837</v>
       </c>
       <c r="I51">
-        <v>1066.525174392062</v>
+        <v>1117620.271965681</v>
       </c>
       <c r="J51">
-        <v>-320.1809861941377</v>
+        <v>4840843.680423428</v>
       </c>
       <c r="K51">
-        <v>-1572.873299158211</v>
+        <v>3981438.761648281</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2212,31 +2227,31 @@
         <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D52" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E52">
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>53.78425049120068</v>
+        <v>1116396.373998343</v>
       </c>
       <c r="G52">
-        <v>525.0321222144744</v>
+        <v>4841830.18340789</v>
       </c>
       <c r="H52">
-        <v>1834.620913246708</v>
+        <v>3986348.908495447</v>
       </c>
       <c r="I52">
-        <v>1149.194052011587</v>
+        <v>1117717.806991338</v>
       </c>
       <c r="J52">
-        <v>-360.754532955836</v>
+        <v>4840795.028791639</v>
       </c>
       <c r="K52">
-        <v>-1808.355965312479</v>
+        <v>3981000.273566989</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2247,31 +2262,31 @@
         <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D53" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E53">
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>53.16971112792796</v>
+        <v>1116395.945232533</v>
       </c>
       <c r="G53">
-        <v>539.2436515449793</v>
+        <v>4841846.696211988</v>
       </c>
       <c r="H53">
-        <v>1841.034808593605</v>
+        <v>3986355.795780164</v>
       </c>
       <c r="I53">
-        <v>1233.898574688519</v>
+        <v>1117817.743727273</v>
       </c>
       <c r="J53">
-        <v>-401.3280797175339</v>
+        <v>4840746.37715985</v>
       </c>
       <c r="K53">
-        <v>-2051.973959909521</v>
+        <v>3980546.636835404</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2282,31 +2297,5596 @@
         <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D54" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E54">
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>52.57576340731822</v>
+        <v>1116395.530833569</v>
       </c>
       <c r="G54">
-        <v>553.4551808754843</v>
+        <v>4841863.209016087</v>
       </c>
       <c r="H54">
-        <v>1847.304755119338</v>
+        <v>3986362.528491652</v>
       </c>
       <c r="I54">
-        <v>1320.688868309639</v>
+        <v>1117920.141313389</v>
       </c>
       <c r="J54">
-        <v>-441.9016264792322</v>
+        <v>4840697.72552806</v>
       </c>
       <c r="K54">
-        <v>-2303.727282949341</v>
+        <v>3980077.851453526</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55">
+        <v>5</v>
+      </c>
+      <c r="B55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" t="s">
+        <v>18</v>
+      </c>
+      <c r="E55">
+        <v>152.142</v>
+      </c>
+      <c r="F55">
+        <v>1116579.796681244</v>
+      </c>
+      <c r="G55">
+        <v>4841125.265267914</v>
+      </c>
+      <c r="H55">
+        <v>3985230.396453584</v>
+      </c>
+      <c r="I55">
+        <v>1114859.574446653</v>
+      </c>
+      <c r="J55">
+        <v>4843233.947207468</v>
+      </c>
+      <c r="K55">
+        <v>3984371.877594516</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56">
+        <v>5</v>
+      </c>
+      <c r="B56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56">
+        <v>153.142</v>
+      </c>
+      <c r="F56">
+        <v>1116579.796681244</v>
+      </c>
+      <c r="G56">
+        <v>4841125.265267914</v>
+      </c>
+      <c r="H56">
+        <v>3985230.396453584</v>
+      </c>
+      <c r="I56">
+        <v>1114889.188395755</v>
+      </c>
+      <c r="J56">
+        <v>4843185.295512023</v>
+      </c>
+      <c r="K56">
+        <v>3984675.673705164</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57">
+        <v>5</v>
+      </c>
+      <c r="B57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57">
+        <v>154.142</v>
+      </c>
+      <c r="F57">
+        <v>1116579.796681244</v>
+      </c>
+      <c r="G57">
+        <v>4841125.265267914</v>
+      </c>
+      <c r="H57">
+        <v>3985230.396453584</v>
+      </c>
+      <c r="I57">
+        <v>1114919.53156111</v>
+      </c>
+      <c r="J57">
+        <v>4843136.643816578</v>
+      </c>
+      <c r="K57">
+        <v>3984964.321149185</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58">
+        <v>5</v>
+      </c>
+      <c r="B58" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58">
+        <v>155.142</v>
+      </c>
+      <c r="F58">
+        <v>1116579.796681244</v>
+      </c>
+      <c r="G58">
+        <v>4841125.265267914</v>
+      </c>
+      <c r="H58">
+        <v>3985230.396453584</v>
+      </c>
+      <c r="I58">
+        <v>1114950.621898997</v>
+      </c>
+      <c r="J58">
+        <v>4843087.992121134</v>
+      </c>
+      <c r="K58">
+        <v>3985237.819926577</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59">
+        <v>5</v>
+      </c>
+      <c r="B59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" t="s">
+        <v>18</v>
+      </c>
+      <c r="E59">
+        <v>156.142</v>
+      </c>
+      <c r="F59">
+        <v>1116579.796681244</v>
+      </c>
+      <c r="G59">
+        <v>4841125.265267914</v>
+      </c>
+      <c r="H59">
+        <v>3985230.396453584</v>
+      </c>
+      <c r="I59">
+        <v>1114982.477807852</v>
+      </c>
+      <c r="J59">
+        <v>4843039.34042569</v>
+      </c>
+      <c r="K59">
+        <v>3985496.170037341</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60">
+        <v>5</v>
+      </c>
+      <c r="B60" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" t="s">
+        <v>18</v>
+      </c>
+      <c r="E60">
+        <v>157.142</v>
+      </c>
+      <c r="F60">
+        <v>1116579.796681244</v>
+      </c>
+      <c r="G60">
+        <v>4841125.265267914</v>
+      </c>
+      <c r="H60">
+        <v>3985230.396453584</v>
+      </c>
+      <c r="I60">
+        <v>1115015.118139155</v>
+      </c>
+      <c r="J60">
+        <v>4842990.688730245</v>
+      </c>
+      <c r="K60">
+        <v>3985739.371481476</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61">
+        <v>5</v>
+      </c>
+      <c r="B61" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" t="s">
+        <v>18</v>
+      </c>
+      <c r="E61">
+        <v>158.142</v>
+      </c>
+      <c r="F61">
+        <v>1116579.796681244</v>
+      </c>
+      <c r="G61">
+        <v>4841125.265267914</v>
+      </c>
+      <c r="H61">
+        <v>3985230.396453584</v>
+      </c>
+      <c r="I61">
+        <v>1115048.562208588</v>
+      </c>
+      <c r="J61">
+        <v>4842942.037034799</v>
+      </c>
+      <c r="K61">
+        <v>3985967.424258983</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62">
+        <v>5</v>
+      </c>
+      <c r="B62" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" t="s">
+        <v>18</v>
+      </c>
+      <c r="E62">
+        <v>159.142</v>
+      </c>
+      <c r="F62">
+        <v>1116579.796681244</v>
+      </c>
+      <c r="G62">
+        <v>4841125.265267914</v>
+      </c>
+      <c r="H62">
+        <v>3985230.396453584</v>
+      </c>
+      <c r="I62">
+        <v>1115082.829807462</v>
+      </c>
+      <c r="J62">
+        <v>4842893.385339355</v>
+      </c>
+      <c r="K62">
+        <v>3986180.328369862</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63">
+        <v>5</v>
+      </c>
+      <c r="B63" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" t="s">
+        <v>18</v>
+      </c>
+      <c r="E63">
+        <v>160.142</v>
+      </c>
+      <c r="F63">
+        <v>1116579.796681244</v>
+      </c>
+      <c r="G63">
+        <v>4841141.77808952</v>
+      </c>
+      <c r="H63">
+        <v>3985230.396453584</v>
+      </c>
+      <c r="I63">
+        <v>1115117.941214434</v>
+      </c>
+      <c r="J63">
+        <v>4842844.733643911</v>
+      </c>
+      <c r="K63">
+        <v>3986378.083814112</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64">
+        <v>5</v>
+      </c>
+      <c r="B64" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64" t="s">
+        <v>18</v>
+      </c>
+      <c r="E64">
+        <v>161.142</v>
+      </c>
+      <c r="F64">
+        <v>1116531.116061109</v>
+      </c>
+      <c r="G64">
+        <v>4841158.290911124</v>
+      </c>
+      <c r="H64">
+        <v>3985429.65096376</v>
+      </c>
+      <c r="I64">
+        <v>1115153.9172075</v>
+      </c>
+      <c r="J64">
+        <v>4842796.081948467</v>
+      </c>
+      <c r="K64">
+        <v>3986560.690591735</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65">
+        <v>5</v>
+      </c>
+      <c r="B65" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65">
+        <v>162.142</v>
+      </c>
+      <c r="F65">
+        <v>1116502.518638863</v>
+      </c>
+      <c r="G65">
+        <v>4841174.80373273</v>
+      </c>
+      <c r="H65">
+        <v>3985548.337140283</v>
+      </c>
+      <c r="I65">
+        <v>1115190.779076298</v>
+      </c>
+      <c r="J65">
+        <v>4842747.430253021</v>
+      </c>
+      <c r="K65">
+        <v>3986728.148702729</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66">
+        <v>5</v>
+      </c>
+      <c r="B66" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" t="s">
+        <v>14</v>
+      </c>
+      <c r="D66" t="s">
+        <v>18</v>
+      </c>
+      <c r="E66">
+        <v>163.142</v>
+      </c>
+      <c r="F66">
+        <v>1116484.465847929</v>
+      </c>
+      <c r="G66">
+        <v>4841191.316554334</v>
+      </c>
+      <c r="H66">
+        <v>3985633.154128952</v>
+      </c>
+      <c r="I66">
+        <v>1115228.548634703</v>
+      </c>
+      <c r="J66">
+        <v>4842698.778557577</v>
+      </c>
+      <c r="K66">
+        <v>3986880.458147094</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67">
+        <v>5</v>
+      </c>
+      <c r="B67" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67" t="s">
+        <v>18</v>
+      </c>
+      <c r="E67">
+        <v>164.142</v>
+      </c>
+      <c r="F67">
+        <v>1116471.875904812</v>
+      </c>
+      <c r="G67">
+        <v>4841207.829375939</v>
+      </c>
+      <c r="H67">
+        <v>3985699.201072588</v>
+      </c>
+      <c r="I67">
+        <v>1115267.248233736</v>
+      </c>
+      <c r="J67">
+        <v>4842650.126862132</v>
+      </c>
+      <c r="K67">
+        <v>3987017.618924831</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68">
+        <v>5</v>
+      </c>
+      <c r="B68" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" t="s">
+        <v>14</v>
+      </c>
+      <c r="D68" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68">
+        <v>165.142</v>
+      </c>
+      <c r="F68">
+        <v>1116462.483430221</v>
+      </c>
+      <c r="G68">
+        <v>4841224.342197544</v>
+      </c>
+      <c r="H68">
+        <v>3985753.298642494</v>
+      </c>
+      <c r="I68">
+        <v>1115306.900774793</v>
+      </c>
+      <c r="J68">
+        <v>4842601.475166688</v>
+      </c>
+      <c r="K68">
+        <v>3987139.63103594</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69">
+        <v>5</v>
+      </c>
+      <c r="B69" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" t="s">
+        <v>14</v>
+      </c>
+      <c r="D69" t="s">
+        <v>18</v>
+      </c>
+      <c r="E69">
+        <v>166.142</v>
+      </c>
+      <c r="F69">
+        <v>1116455.139826711</v>
+      </c>
+      <c r="G69">
+        <v>4841240.855019148</v>
+      </c>
+      <c r="H69">
+        <v>3985799.115335273</v>
+      </c>
+      <c r="I69">
+        <v>1115347.529723194</v>
+      </c>
+      <c r="J69">
+        <v>4842552.823471243</v>
+      </c>
+      <c r="K69">
+        <v>3987246.494480421</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70">
+        <v>5</v>
+      </c>
+      <c r="B70" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" t="s">
+        <v>14</v>
+      </c>
+      <c r="D70" t="s">
+        <v>18</v>
+      </c>
+      <c r="E70">
+        <v>167.142</v>
+      </c>
+      <c r="F70">
+        <v>1116449.198316766</v>
+      </c>
+      <c r="G70">
+        <v>4841257.367840753</v>
+      </c>
+      <c r="H70">
+        <v>3985838.852971795</v>
+      </c>
+      <c r="I70">
+        <v>1115389.159122071</v>
+      </c>
+      <c r="J70">
+        <v>4842504.171775798</v>
+      </c>
+      <c r="K70">
+        <v>3987338.209258272</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71">
+        <v>5</v>
+      </c>
+      <c r="B71" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" t="s">
+        <v>14</v>
+      </c>
+      <c r="D71" t="s">
+        <v>18</v>
+      </c>
+      <c r="E71">
+        <v>168.142</v>
+      </c>
+      <c r="F71">
+        <v>1116444.264746433</v>
+      </c>
+      <c r="G71">
+        <v>4841273.880662358</v>
+      </c>
+      <c r="H71">
+        <v>3985873.937372658</v>
+      </c>
+      <c r="I71">
+        <v>1115431.813606596</v>
+      </c>
+      <c r="J71">
+        <v>4842455.520080354</v>
+      </c>
+      <c r="K71">
+        <v>3987414.775369497</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72">
+        <v>5</v>
+      </c>
+      <c r="B72" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72" t="s">
+        <v>14</v>
+      </c>
+      <c r="D72" t="s">
+        <v>18</v>
+      </c>
+      <c r="E72">
+        <v>169.142</v>
+      </c>
+      <c r="F72">
+        <v>1116440.083916781</v>
+      </c>
+      <c r="G72">
+        <v>4841290.393483963</v>
+      </c>
+      <c r="H72">
+        <v>3985905.344971426</v>
+      </c>
+      <c r="I72">
+        <v>1115475.518418562</v>
+      </c>
+      <c r="J72">
+        <v>4842406.86838491</v>
+      </c>
+      <c r="K72">
+        <v>3987476.192814092</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73">
+        <v>5</v>
+      </c>
+      <c r="B73" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73" t="s">
+        <v>14</v>
+      </c>
+      <c r="D73" t="s">
+        <v>18</v>
+      </c>
+      <c r="E73">
+        <v>170.142</v>
+      </c>
+      <c r="F73">
+        <v>1116436.482539919</v>
+      </c>
+      <c r="G73">
+        <v>4841306.906305568</v>
+      </c>
+      <c r="H73">
+        <v>3985933.773836544</v>
+      </c>
+      <c r="I73">
+        <v>1115520.299421315</v>
+      </c>
+      <c r="J73">
+        <v>4842358.216689464</v>
+      </c>
+      <c r="K73">
+        <v>3987522.46159206</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74">
+        <v>5</v>
+      </c>
+      <c r="B74" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74" t="s">
+        <v>14</v>
+      </c>
+      <c r="D74" t="s">
+        <v>18</v>
+      </c>
+      <c r="E74">
+        <v>171.142</v>
+      </c>
+      <c r="F74">
+        <v>1116433.338351829</v>
+      </c>
+      <c r="G74">
+        <v>4841323.419127173</v>
+      </c>
+      <c r="H74">
+        <v>3985959.740358761</v>
+      </c>
+      <c r="I74">
+        <v>1115566.183115063</v>
+      </c>
+      <c r="J74">
+        <v>4842309.564994019</v>
+      </c>
+      <c r="K74">
+        <v>3987553.581703398</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75">
+        <v>5</v>
+      </c>
+      <c r="B75" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75" t="s">
+        <v>18</v>
+      </c>
+      <c r="E75">
+        <v>172.142</v>
+      </c>
+      <c r="F75">
+        <v>1116430.562330917</v>
+      </c>
+      <c r="G75">
+        <v>4841339.931948777</v>
+      </c>
+      <c r="H75">
+        <v>3985983.637293046</v>
+      </c>
+      <c r="I75">
+        <v>1115613.196652557</v>
+      </c>
+      <c r="J75">
+        <v>4842260.913298575</v>
+      </c>
+      <c r="K75">
+        <v>3987569.553148109</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76">
+        <v>5</v>
+      </c>
+      <c r="B76" t="s">
+        <v>12</v>
+      </c>
+      <c r="C76" t="s">
+        <v>14</v>
+      </c>
+      <c r="D76" t="s">
+        <v>18</v>
+      </c>
+      <c r="E76">
+        <v>173.142</v>
+      </c>
+      <c r="F76">
+        <v>1116428.087933217</v>
+      </c>
+      <c r="G76">
+        <v>4841356.444770383</v>
+      </c>
+      <c r="H76">
+        <v>3986005.77032636</v>
+      </c>
+      <c r="I76">
+        <v>1115661.367855161</v>
+      </c>
+      <c r="J76">
+        <v>4842212.261603131</v>
+      </c>
+      <c r="K76">
+        <v>3987570.375926191</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77">
+        <v>5</v>
+      </c>
+      <c r="B77" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77" t="s">
+        <v>14</v>
+      </c>
+      <c r="D77" t="s">
+        <v>18</v>
+      </c>
+      <c r="E77">
+        <v>174.142</v>
+      </c>
+      <c r="F77">
+        <v>1116425.864296105</v>
+      </c>
+      <c r="G77">
+        <v>4841372.957591988</v>
+      </c>
+      <c r="H77">
+        <v>3986026.382051768</v>
+      </c>
+      <c r="I77">
+        <v>1115710.725229311</v>
+      </c>
+      <c r="J77">
+        <v>4842163.609907686</v>
+      </c>
+      <c r="K77">
+        <v>3987556.050037645</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78">
+        <v>5</v>
+      </c>
+      <c r="B78" t="s">
+        <v>12</v>
+      </c>
+      <c r="C78" t="s">
+        <v>14</v>
+      </c>
+      <c r="D78" t="s">
+        <v>18</v>
+      </c>
+      <c r="E78">
+        <v>175.142</v>
+      </c>
+      <c r="F78">
+        <v>1116423.851792369</v>
+      </c>
+      <c r="G78">
+        <v>4841389.470413592</v>
+      </c>
+      <c r="H78">
+        <v>3986045.668219784</v>
+      </c>
+      <c r="I78">
+        <v>1115761.297983393</v>
+      </c>
+      <c r="J78">
+        <v>4842114.958212241</v>
+      </c>
+      <c r="K78">
+        <v>3987526.57548247</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79">
+        <v>5</v>
+      </c>
+      <c r="B79" t="s">
+        <v>12</v>
+      </c>
+      <c r="C79" t="s">
+        <v>14</v>
+      </c>
+      <c r="D79" t="s">
+        <v>18</v>
+      </c>
+      <c r="E79">
+        <v>176.142</v>
+      </c>
+      <c r="F79">
+        <v>1116422.01903194</v>
+      </c>
+      <c r="G79">
+        <v>4841405.983235197</v>
+      </c>
+      <c r="H79">
+        <v>3986063.789072365</v>
+      </c>
+      <c r="I79">
+        <v>1115813.116045017</v>
+      </c>
+      <c r="J79">
+        <v>4842066.306516796</v>
+      </c>
+      <c r="K79">
+        <v>3987481.952260668</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80">
+        <v>5</v>
+      </c>
+      <c r="B80" t="s">
+        <v>12</v>
+      </c>
+      <c r="C80" t="s">
+        <v>14</v>
+      </c>
+      <c r="D80" t="s">
+        <v>18</v>
+      </c>
+      <c r="E80">
+        <v>177.142</v>
+      </c>
+      <c r="F80">
+        <v>1116420.340785872</v>
+      </c>
+      <c r="G80">
+        <v>4841422.496056802</v>
+      </c>
+      <c r="H80">
+        <v>3986080.87744361</v>
+      </c>
+      <c r="I80">
+        <v>1115866.210078737</v>
+      </c>
+      <c r="J80">
+        <v>4842017.654821351</v>
+      </c>
+      <c r="K80">
+        <v>3987422.180372237</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81">
+        <v>5</v>
+      </c>
+      <c r="B81" t="s">
+        <v>12</v>
+      </c>
+      <c r="C81" t="s">
+        <v>14</v>
+      </c>
+      <c r="D81" t="s">
+        <v>18</v>
+      </c>
+      <c r="E81">
+        <v>178.142</v>
+      </c>
+      <c r="F81">
+        <v>1116418.796515373</v>
+      </c>
+      <c r="G81">
+        <v>4841439.008878406</v>
+      </c>
+      <c r="H81">
+        <v>3986097.044674521</v>
+      </c>
+      <c r="I81">
+        <v>1115920.611504192</v>
+      </c>
+      <c r="J81">
+        <v>4841969.003125907</v>
+      </c>
+      <c r="K81">
+        <v>3987347.259817177</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82">
+        <v>5</v>
+      </c>
+      <c r="B82" t="s">
+        <v>12</v>
+      </c>
+      <c r="C82" t="s">
+        <v>14</v>
+      </c>
+      <c r="D82" t="s">
+        <v>18</v>
+      </c>
+      <c r="E82">
+        <v>179.142</v>
+      </c>
+      <c r="F82">
+        <v>1116417.369308121</v>
+      </c>
+      <c r="G82">
+        <v>4841455.521700012</v>
+      </c>
+      <c r="H82">
+        <v>3986112.38501356</v>
+      </c>
+      <c r="I82">
+        <v>1115976.3525147</v>
+      </c>
+      <c r="J82">
+        <v>4841920.351430463</v>
+      </c>
+      <c r="K82">
+        <v>3987257.19059549</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83">
+        <v>5</v>
+      </c>
+      <c r="B83" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83" t="s">
+        <v>14</v>
+      </c>
+      <c r="D83" t="s">
+        <v>18</v>
+      </c>
+      <c r="E83">
+        <v>180.142</v>
+      </c>
+      <c r="F83">
+        <v>1116416.045095084</v>
+      </c>
+      <c r="G83">
+        <v>4841472.034521616</v>
+      </c>
+      <c r="H83">
+        <v>3986126.97894561</v>
+      </c>
+      <c r="I83">
+        <v>1116033.466096312</v>
+      </c>
+      <c r="J83">
+        <v>4841871.699735018</v>
+      </c>
+      <c r="K83">
+        <v>3987151.972707174</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84">
+        <v>5</v>
+      </c>
+      <c r="B84" t="s">
+        <v>12</v>
+      </c>
+      <c r="C84" t="s">
+        <v>14</v>
+      </c>
+      <c r="D84" t="s">
+        <v>18</v>
+      </c>
+      <c r="E84">
+        <v>181.142</v>
+      </c>
+      <c r="F84">
+        <v>1116414.812064463</v>
+      </c>
+      <c r="G84">
+        <v>4841488.547343221</v>
+      </c>
+      <c r="H84">
+        <v>3986140.895747987</v>
+      </c>
+      <c r="I84">
+        <v>1116091.986047327</v>
+      </c>
+      <c r="J84">
+        <v>4841823.048039572</v>
+      </c>
+      <c r="K84">
+        <v>3987031.606152229</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85">
+        <v>5</v>
+      </c>
+      <c r="B85" t="s">
+        <v>12</v>
+      </c>
+      <c r="C85" t="s">
+        <v>14</v>
+      </c>
+      <c r="D85" t="s">
+        <v>18</v>
+      </c>
+      <c r="E85">
+        <v>182.142</v>
+      </c>
+      <c r="F85">
+        <v>1116413.660216737</v>
+      </c>
+      <c r="G85">
+        <v>4841505.060164826</v>
+      </c>
+      <c r="H85">
+        <v>3986154.195479343</v>
+      </c>
+      <c r="I85">
+        <v>1116151.946998298</v>
+      </c>
+      <c r="J85">
+        <v>4841774.396344128</v>
+      </c>
+      <c r="K85">
+        <v>3986896.090930657</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86">
+        <v>5</v>
+      </c>
+      <c r="B86" t="s">
+        <v>12</v>
+      </c>
+      <c r="C86" t="s">
+        <v>14</v>
+      </c>
+      <c r="D86" t="s">
+        <v>18</v>
+      </c>
+      <c r="E86">
+        <v>183.142</v>
+      </c>
+      <c r="F86">
+        <v>1116412.581022348</v>
+      </c>
+      <c r="G86">
+        <v>4841521.57298643</v>
+      </c>
+      <c r="H86">
+        <v>3986166.930546055</v>
+      </c>
+      <c r="I86">
+        <v>1116213.384432524</v>
+      </c>
+      <c r="J86">
+        <v>4841725.744648684</v>
+      </c>
+      <c r="K86">
+        <v>3986745.427042456</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87">
+        <v>5</v>
+      </c>
+      <c r="B87" t="s">
+        <v>12</v>
+      </c>
+      <c r="C87" t="s">
+        <v>14</v>
+      </c>
+      <c r="D87" t="s">
+        <v>18</v>
+      </c>
+      <c r="E87">
+        <v>184.142</v>
+      </c>
+      <c r="F87">
+        <v>1116411.567155203</v>
+      </c>
+      <c r="G87">
+        <v>4841538.085808036</v>
+      </c>
+      <c r="H87">
+        <v>3986179.146949436</v>
+      </c>
+      <c r="I87">
+        <v>1116276.334707047</v>
+      </c>
+      <c r="J87">
+        <v>4841677.09295324</v>
+      </c>
+      <c r="K87">
+        <v>3986579.614487627</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88">
+        <v>5</v>
+      </c>
+      <c r="B88" t="s">
+        <v>12</v>
+      </c>
+      <c r="C88" t="s">
+        <v>14</v>
+      </c>
+      <c r="D88" t="s">
+        <v>18</v>
+      </c>
+      <c r="E88">
+        <v>185.142</v>
+      </c>
+      <c r="F88">
+        <v>1116410.612282907</v>
+      </c>
+      <c r="G88">
+        <v>4841554.59862964</v>
+      </c>
+      <c r="H88">
+        <v>3986190.88528877</v>
+      </c>
+      <c r="I88">
+        <v>1116340.835074166</v>
+      </c>
+      <c r="J88">
+        <v>4841628.441257794</v>
+      </c>
+      <c r="K88">
+        <v>3986398.653266169</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89">
+        <v>5</v>
+      </c>
+      <c r="B89" t="s">
+        <v>12</v>
+      </c>
+      <c r="C89" t="s">
+        <v>14</v>
+      </c>
+      <c r="D89" t="s">
+        <v>18</v>
+      </c>
+      <c r="E89">
+        <v>186.142</v>
+      </c>
+      <c r="F89">
+        <v>1116409.710900004</v>
+      </c>
+      <c r="G89">
+        <v>4841571.111451245</v>
+      </c>
+      <c r="H89">
+        <v>3986202.181575373</v>
+      </c>
+      <c r="I89">
+        <v>1116406.923703486</v>
+      </c>
+      <c r="J89">
+        <v>4841579.78956235</v>
+      </c>
+      <c r="K89">
+        <v>3986202.543378084</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90">
+        <v>5</v>
+      </c>
+      <c r="B90" t="s">
+        <v>12</v>
+      </c>
+      <c r="C90" t="s">
+        <v>14</v>
+      </c>
+      <c r="D90" t="s">
+        <v>18</v>
+      </c>
+      <c r="E90">
+        <v>187.142</v>
+      </c>
+      <c r="F90">
+        <v>1116408.858194181</v>
+      </c>
+      <c r="G90">
+        <v>4841587.62427285</v>
+      </c>
+      <c r="H90">
+        <v>3986213.067898861</v>
+      </c>
+      <c r="I90">
+        <v>1116474.639704503</v>
+      </c>
+      <c r="J90">
+        <v>4841531.137866905</v>
+      </c>
+      <c r="K90">
+        <v>3985991.284823369</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91">
+        <v>5</v>
+      </c>
+      <c r="B91" t="s">
+        <v>12</v>
+      </c>
+      <c r="C91" t="s">
+        <v>14</v>
+      </c>
+      <c r="D91" t="s">
+        <v>18</v>
+      </c>
+      <c r="E91">
+        <v>188.142</v>
+      </c>
+      <c r="F91">
+        <v>1116408.049937997</v>
+      </c>
+      <c r="G91">
+        <v>4841604.137094455</v>
+      </c>
+      <c r="H91">
+        <v>3986223.572976703</v>
+      </c>
+      <c r="I91">
+        <v>1116544.023149748</v>
+      </c>
+      <c r="J91">
+        <v>4841482.486171461</v>
+      </c>
+      <c r="K91">
+        <v>3985764.877602026</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92">
+        <v>5</v>
+      </c>
+      <c r="B92" t="s">
+        <v>12</v>
+      </c>
+      <c r="C92" t="s">
+        <v>14</v>
+      </c>
+      <c r="D92" t="s">
+        <v>18</v>
+      </c>
+      <c r="E92">
+        <v>189.142</v>
+      </c>
+      <c r="F92">
+        <v>1116407.282400589</v>
+      </c>
+      <c r="G92">
+        <v>4841620.64991606</v>
+      </c>
+      <c r="H92">
+        <v>3986233.722610757</v>
+      </c>
+      <c r="I92">
+        <v>1116615.1150985</v>
+      </c>
+      <c r="J92">
+        <v>4841433.834476016</v>
+      </c>
+      <c r="K92">
+        <v>3985523.321714055</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93">
+        <v>5</v>
+      </c>
+      <c r="B93" t="s">
+        <v>12</v>
+      </c>
+      <c r="C93" t="s">
+        <v>14</v>
+      </c>
+      <c r="D93" t="s">
+        <v>18</v>
+      </c>
+      <c r="E93">
+        <v>190.142</v>
+      </c>
+      <c r="F93">
+        <v>1116406.552275132</v>
+      </c>
+      <c r="G93">
+        <v>4841637.162737665</v>
+      </c>
+      <c r="H93">
+        <v>3986243.54006907</v>
+      </c>
+      <c r="I93">
+        <v>1116687.957621086</v>
+      </c>
+      <c r="J93">
+        <v>4841385.182780571</v>
+      </c>
+      <c r="K93">
+        <v>3985266.617159456</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94">
+        <v>5</v>
+      </c>
+      <c r="B94" t="s">
+        <v>12</v>
+      </c>
+      <c r="C94" t="s">
+        <v>14</v>
+      </c>
+      <c r="D94" t="s">
+        <v>18</v>
+      </c>
+      <c r="E94">
+        <v>191.142</v>
+      </c>
+      <c r="F94">
+        <v>1116405.85661884</v>
+      </c>
+      <c r="G94">
+        <v>4841653.675559269</v>
+      </c>
+      <c r="H94">
+        <v>3986253.046407155</v>
+      </c>
+      <c r="I94">
+        <v>1116762.593823778</v>
+      </c>
+      <c r="J94">
+        <v>4841336.531085127</v>
+      </c>
+      <c r="K94">
+        <v>3984994.763938229</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95">
+        <v>5</v>
+      </c>
+      <c r="B95" t="s">
+        <v>12</v>
+      </c>
+      <c r="C95" t="s">
+        <v>14</v>
+      </c>
+      <c r="D95" t="s">
+        <v>18</v>
+      </c>
+      <c r="E95">
+        <v>192.142</v>
+      </c>
+      <c r="F95">
+        <v>1116405.192803025</v>
+      </c>
+      <c r="G95">
+        <v>4841670.188380875</v>
+      </c>
+      <c r="H95">
+        <v>3986262.260739919</v>
+      </c>
+      <c r="I95">
+        <v>1116839.067874296</v>
+      </c>
+      <c r="J95">
+        <v>4841287.879389683</v>
+      </c>
+      <c r="K95">
+        <v>3984707.762050373</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96">
+        <v>5</v>
+      </c>
+      <c r="B96" t="s">
+        <v>12</v>
+      </c>
+      <c r="C96" t="s">
+        <v>14</v>
+      </c>
+      <c r="D96" t="s">
+        <v>18</v>
+      </c>
+      <c r="E96">
+        <v>193.142</v>
+      </c>
+      <c r="F96">
+        <v>1116404.55847128</v>
+      </c>
+      <c r="G96">
+        <v>4841686.70120248</v>
+      </c>
+      <c r="H96">
+        <v>3986271.200473042</v>
+      </c>
+      <c r="I96">
+        <v>1116917.425027954</v>
+      </c>
+      <c r="J96">
+        <v>4841239.227694237</v>
+      </c>
+      <c r="K96">
+        <v>3984405.611495889</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97">
+        <v>5</v>
+      </c>
+      <c r="B97" t="s">
+        <v>12</v>
+      </c>
+      <c r="C97" t="s">
+        <v>14</v>
+      </c>
+      <c r="D97" t="s">
+        <v>18</v>
+      </c>
+      <c r="E97">
+        <v>194.142</v>
+      </c>
+      <c r="F97">
+        <v>1116403.951504267</v>
+      </c>
+      <c r="G97">
+        <v>4841703.214024084</v>
+      </c>
+      <c r="H97">
+        <v>3986279.881500877</v>
+      </c>
+      <c r="I97">
+        <v>1116997.711654434</v>
+      </c>
+      <c r="J97">
+        <v>4841190.575998792</v>
+      </c>
+      <c r="K97">
+        <v>3984088.312274776</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98">
+        <v>5</v>
+      </c>
+      <c r="B98" t="s">
+        <v>12</v>
+      </c>
+      <c r="C98" t="s">
+        <v>14</v>
+      </c>
+      <c r="D98" t="s">
+        <v>18</v>
+      </c>
+      <c r="E98">
+        <v>195.142</v>
+      </c>
+      <c r="F98">
+        <v>1116403.369989915</v>
+      </c>
+      <c r="G98">
+        <v>4841719.726845689</v>
+      </c>
+      <c r="H98">
+        <v>3986288.318376512</v>
+      </c>
+      <c r="I98">
+        <v>1117079.975265228</v>
+      </c>
+      <c r="J98">
+        <v>4841141.924303348</v>
+      </c>
+      <c r="K98">
+        <v>3983755.864387035</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99">
+        <v>5</v>
+      </c>
+      <c r="B99" t="s">
+        <v>12</v>
+      </c>
+      <c r="C99" t="s">
+        <v>14</v>
+      </c>
+      <c r="D99" t="s">
+        <v>18</v>
+      </c>
+      <c r="E99">
+        <v>196.142</v>
+      </c>
+      <c r="F99">
+        <v>1116402.812198076</v>
+      </c>
+      <c r="G99">
+        <v>4841736.239667294</v>
+      </c>
+      <c r="H99">
+        <v>3986296.524458559</v>
+      </c>
+      <c r="I99">
+        <v>1117164.264541757</v>
+      </c>
+      <c r="J99">
+        <v>4841093.272607903</v>
+      </c>
+      <c r="K99">
+        <v>3983408.267832666</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100">
+        <v>5</v>
+      </c>
+      <c r="B100" t="s">
+        <v>12</v>
+      </c>
+      <c r="C100" t="s">
+        <v>14</v>
+      </c>
+      <c r="D100" t="s">
+        <v>18</v>
+      </c>
+      <c r="E100">
+        <v>197.142</v>
+      </c>
+      <c r="F100">
+        <v>1116402.276558859</v>
+      </c>
+      <c r="G100">
+        <v>4841752.752488899</v>
+      </c>
+      <c r="H100">
+        <v>3986304.512038404</v>
+      </c>
+      <c r="I100">
+        <v>1117250.629364175</v>
+      </c>
+      <c r="J100">
+        <v>4841044.620912459</v>
+      </c>
+      <c r="K100">
+        <v>3983045.522611669</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101">
+        <v>5</v>
+      </c>
+      <c r="B101" t="s">
+        <v>12</v>
+      </c>
+      <c r="C101" t="s">
+        <v>14</v>
+      </c>
+      <c r="D101" t="s">
+        <v>18</v>
+      </c>
+      <c r="E101">
+        <v>198.142</v>
+      </c>
+      <c r="F101">
+        <v>1116401.761644044</v>
+      </c>
+      <c r="G101">
+        <v>4841769.265310504</v>
+      </c>
+      <c r="H101">
+        <v>3986312.29245094</v>
+      </c>
+      <c r="I101">
+        <v>1117339.120840891</v>
+      </c>
+      <c r="J101">
+        <v>4840995.969217014</v>
+      </c>
+      <c r="K101">
+        <v>3982667.628724043</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102">
+        <v>5</v>
+      </c>
+      <c r="B102" t="s">
+        <v>12</v>
+      </c>
+      <c r="C102" t="s">
+        <v>14</v>
+      </c>
+      <c r="D102" t="s">
+        <v>18</v>
+      </c>
+      <c r="E102">
+        <v>199.142</v>
+      </c>
+      <c r="F102">
+        <v>1116401.266151058</v>
+      </c>
+      <c r="G102">
+        <v>4841785.778132108</v>
+      </c>
+      <c r="H102">
+        <v>3986319.876171311</v>
+      </c>
+      <c r="I102">
+        <v>1117429.791338812</v>
+      </c>
+      <c r="J102">
+        <v>4840947.317521569</v>
+      </c>
+      <c r="K102">
+        <v>3982274.586169789</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103">
+        <v>5</v>
+      </c>
+      <c r="B103" t="s">
+        <v>12</v>
+      </c>
+      <c r="C103" t="s">
+        <v>14</v>
+      </c>
+      <c r="D103" t="s">
+        <v>18</v>
+      </c>
+      <c r="E103">
+        <v>200.142</v>
+      </c>
+      <c r="F103">
+        <v>1116400.788889117</v>
+      </c>
+      <c r="G103">
+        <v>4841802.290953713</v>
+      </c>
+      <c r="H103">
+        <v>3986327.272899723</v>
+      </c>
+      <c r="I103">
+        <v>1117522.694514327</v>
+      </c>
+      <c r="J103">
+        <v>4840898.665826124</v>
+      </c>
+      <c r="K103">
+        <v>3981866.394948906</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104">
+        <v>5</v>
+      </c>
+      <c r="B104" t="s">
+        <v>12</v>
+      </c>
+      <c r="C104" t="s">
+        <v>14</v>
+      </c>
+      <c r="D104" t="s">
+        <v>18</v>
+      </c>
+      <c r="E104">
+        <v>201.142</v>
+      </c>
+      <c r="F104">
+        <v>1116400.328767185</v>
+      </c>
+      <c r="G104">
+        <v>4841818.803775318</v>
+      </c>
+      <c r="H104">
+        <v>3986334.491636038</v>
+      </c>
+      <c r="I104">
+        <v>1117617.885345071</v>
+      </c>
+      <c r="J104">
+        <v>4840850.01413068</v>
+      </c>
+      <c r="K104">
+        <v>3981443.055061396</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105">
+        <v>5</v>
+      </c>
+      <c r="B105" t="s">
+        <v>12</v>
+      </c>
+      <c r="C105" t="s">
+        <v>14</v>
+      </c>
+      <c r="D105" t="s">
+        <v>18</v>
+      </c>
+      <c r="E105">
+        <v>202.142</v>
+      </c>
+      <c r="F105">
+        <v>1116399.884783484</v>
+      </c>
+      <c r="G105">
+        <v>4841835.316596922</v>
+      </c>
+      <c r="H105">
+        <v>3986341.54074562</v>
+      </c>
+      <c r="I105">
+        <v>1117715.420162447</v>
+      </c>
+      <c r="J105">
+        <v>4840801.362435236</v>
+      </c>
+      <c r="K105">
+        <v>3981004.566507256</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106">
+        <v>5</v>
+      </c>
+      <c r="B106" t="s">
+        <v>12</v>
+      </c>
+      <c r="C106" t="s">
+        <v>14</v>
+      </c>
+      <c r="D106" t="s">
+        <v>18</v>
+      </c>
+      <c r="E106">
+        <v>203.142</v>
+      </c>
+      <c r="F106">
+        <v>1116399.456016326</v>
+      </c>
+      <c r="G106">
+        <v>4841851.829418528</v>
+      </c>
+      <c r="H106">
+        <v>3986348.428017607</v>
+      </c>
+      <c r="I106">
+        <v>1117815.356684972</v>
+      </c>
+      <c r="J106">
+        <v>4840752.710739791</v>
+      </c>
+      <c r="K106">
+        <v>3980550.929286489</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107">
+        <v>5</v>
+      </c>
+      <c r="B107" t="s">
+        <v>12</v>
+      </c>
+      <c r="C107" t="s">
+        <v>14</v>
+      </c>
+      <c r="D107" t="s">
+        <v>18</v>
+      </c>
+      <c r="E107">
+        <v>204.142</v>
+      </c>
+      <c r="F107">
+        <v>1116399.041616059</v>
+      </c>
+      <c r="G107">
+        <v>4841868.342240133</v>
+      </c>
+      <c r="H107">
+        <v>3986355.160716651</v>
+      </c>
+      <c r="I107">
+        <v>1117917.754052423</v>
+      </c>
+      <c r="J107">
+        <v>4840704.059044346</v>
+      </c>
+      <c r="K107">
+        <v>3980082.143399093</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108">
+        <v>5</v>
+      </c>
+      <c r="B108" t="s">
+        <v>12</v>
+      </c>
+      <c r="C108" t="s">
+        <v>15</v>
+      </c>
+      <c r="D108" t="s">
+        <v>18</v>
+      </c>
+      <c r="E108">
+        <v>152.142</v>
+      </c>
+      <c r="F108">
+        <v>1116580.021435622</v>
+      </c>
+      <c r="G108">
+        <v>4841121.356012429</v>
+      </c>
+      <c r="H108">
+        <v>3985228.99588853</v>
+      </c>
+      <c r="I108">
+        <v>1114862.51184448</v>
+      </c>
+      <c r="J108">
+        <v>4843231.995175411</v>
+      </c>
+      <c r="K108">
+        <v>3984374.0955053</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109">
+        <v>5</v>
+      </c>
+      <c r="B109" t="s">
+        <v>12</v>
+      </c>
+      <c r="C109" t="s">
+        <v>15</v>
+      </c>
+      <c r="D109" t="s">
+        <v>18</v>
+      </c>
+      <c r="E109">
+        <v>153.142</v>
+      </c>
+      <c r="F109">
+        <v>1116580.021435622</v>
+      </c>
+      <c r="G109">
+        <v>4841121.356012429</v>
+      </c>
+      <c r="H109">
+        <v>3985228.99588853</v>
+      </c>
+      <c r="I109">
+        <v>1114892.125871608</v>
+      </c>
+      <c r="J109">
+        <v>4843183.343499576</v>
+      </c>
+      <c r="K109">
+        <v>3984677.891785057</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110">
+        <v>5</v>
+      </c>
+      <c r="B110" t="s">
+        <v>12</v>
+      </c>
+      <c r="C110" t="s">
+        <v>15</v>
+      </c>
+      <c r="D110" t="s">
+        <v>18</v>
+      </c>
+      <c r="E110">
+        <v>154.142</v>
+      </c>
+      <c r="F110">
+        <v>1116580.021435622</v>
+      </c>
+      <c r="G110">
+        <v>4841121.356012429</v>
+      </c>
+      <c r="H110">
+        <v>3985228.99588853</v>
+      </c>
+      <c r="I110">
+        <v>1114922.46911691</v>
+      </c>
+      <c r="J110">
+        <v>4843134.69182374</v>
+      </c>
+      <c r="K110">
+        <v>3984966.539389754</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111">
+        <v>5</v>
+      </c>
+      <c r="B111" t="s">
+        <v>12</v>
+      </c>
+      <c r="C111" t="s">
+        <v>15</v>
+      </c>
+      <c r="D111" t="s">
+        <v>18</v>
+      </c>
+      <c r="E111">
+        <v>155.142</v>
+      </c>
+      <c r="F111">
+        <v>1116580.021435622</v>
+      </c>
+      <c r="G111">
+        <v>4841121.356012429</v>
+      </c>
+      <c r="H111">
+        <v>3985228.99588853</v>
+      </c>
+      <c r="I111">
+        <v>1114953.559536713</v>
+      </c>
+      <c r="J111">
+        <v>4843086.040147903</v>
+      </c>
+      <c r="K111">
+        <v>3985240.03831939</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112">
+        <v>5</v>
+      </c>
+      <c r="B112" t="s">
+        <v>12</v>
+      </c>
+      <c r="C112" t="s">
+        <v>15</v>
+      </c>
+      <c r="D112" t="s">
+        <v>18</v>
+      </c>
+      <c r="E112">
+        <v>156.142</v>
+      </c>
+      <c r="F112">
+        <v>1116580.021435622</v>
+      </c>
+      <c r="G112">
+        <v>4841121.356012429</v>
+      </c>
+      <c r="H112">
+        <v>3985228.99588853</v>
+      </c>
+      <c r="I112">
+        <v>1114985.4155295</v>
+      </c>
+      <c r="J112">
+        <v>4843037.388472068</v>
+      </c>
+      <c r="K112">
+        <v>3985498.388573965</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113">
+        <v>5</v>
+      </c>
+      <c r="B113" t="s">
+        <v>12</v>
+      </c>
+      <c r="C113" t="s">
+        <v>15</v>
+      </c>
+      <c r="D113" t="s">
+        <v>18</v>
+      </c>
+      <c r="E113">
+        <v>157.142</v>
+      </c>
+      <c r="F113">
+        <v>1116580.021435622</v>
+      </c>
+      <c r="G113">
+        <v>4841121.356012429</v>
+      </c>
+      <c r="H113">
+        <v>3985228.99588853</v>
+      </c>
+      <c r="I113">
+        <v>1115018.055946803</v>
+      </c>
+      <c r="J113">
+        <v>4842988.736796232</v>
+      </c>
+      <c r="K113">
+        <v>3985741.590153479</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114">
+        <v>5</v>
+      </c>
+      <c r="B114" t="s">
+        <v>12</v>
+      </c>
+      <c r="C114" t="s">
+        <v>15</v>
+      </c>
+      <c r="D114" t="s">
+        <v>18</v>
+      </c>
+      <c r="E114">
+        <v>158.142</v>
+      </c>
+      <c r="F114">
+        <v>1116580.021435622</v>
+      </c>
+      <c r="G114">
+        <v>4841121.356012429</v>
+      </c>
+      <c r="H114">
+        <v>3985228.99588853</v>
+      </c>
+      <c r="I114">
+        <v>1115051.500104354</v>
+      </c>
+      <c r="J114">
+        <v>4842940.085120396</v>
+      </c>
+      <c r="K114">
+        <v>3985969.643057933</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115">
+        <v>5</v>
+      </c>
+      <c r="B115" t="s">
+        <v>12</v>
+      </c>
+      <c r="C115" t="s">
+        <v>15</v>
+      </c>
+      <c r="D115" t="s">
+        <v>18</v>
+      </c>
+      <c r="E115">
+        <v>159.142</v>
+      </c>
+      <c r="F115">
+        <v>1116580.021435622</v>
+      </c>
+      <c r="G115">
+        <v>4841121.356012429</v>
+      </c>
+      <c r="H115">
+        <v>3985228.99588853</v>
+      </c>
+      <c r="I115">
+        <v>1115085.767793516</v>
+      </c>
+      <c r="J115">
+        <v>4842891.43344456</v>
+      </c>
+      <c r="K115">
+        <v>3986182.547287325</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116">
+        <v>5</v>
+      </c>
+      <c r="B116" t="s">
+        <v>12</v>
+      </c>
+      <c r="C116" t="s">
+        <v>15</v>
+      </c>
+      <c r="D116" t="s">
+        <v>18</v>
+      </c>
+      <c r="E116">
+        <v>160.142</v>
+      </c>
+      <c r="F116">
+        <v>1116580.021435622</v>
+      </c>
+      <c r="G116">
+        <v>4841137.8688207</v>
+      </c>
+      <c r="H116">
+        <v>3985228.99588853</v>
+      </c>
+      <c r="I116">
+        <v>1115120.879292998</v>
+      </c>
+      <c r="J116">
+        <v>4842842.781768724</v>
+      </c>
+      <c r="K116">
+        <v>3986380.302841656</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117">
+        <v>5</v>
+      </c>
+      <c r="B117" t="s">
+        <v>12</v>
+      </c>
+      <c r="C117" t="s">
+        <v>15</v>
+      </c>
+      <c r="D117" t="s">
+        <v>18</v>
+      </c>
+      <c r="E117">
+        <v>161.142</v>
+      </c>
+      <c r="F117">
+        <v>1116531.340805688</v>
+      </c>
+      <c r="G117">
+        <v>4841154.38162897</v>
+      </c>
+      <c r="H117">
+        <v>3985428.25032868</v>
+      </c>
+      <c r="I117">
+        <v>1115156.855380852</v>
+      </c>
+      <c r="J117">
+        <v>4842794.130092888</v>
+      </c>
+      <c r="K117">
+        <v>3986562.909720927</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118">
+        <v>5</v>
+      </c>
+      <c r="B118" t="s">
+        <v>12</v>
+      </c>
+      <c r="C118" t="s">
+        <v>15</v>
+      </c>
+      <c r="D118" t="s">
+        <v>18</v>
+      </c>
+      <c r="E118">
+        <v>162.142</v>
+      </c>
+      <c r="F118">
+        <v>1116502.743377686</v>
+      </c>
+      <c r="G118">
+        <v>4841170.894437241</v>
+      </c>
+      <c r="H118">
+        <v>3985546.936463492</v>
+      </c>
+      <c r="I118">
+        <v>1115193.717346773</v>
+      </c>
+      <c r="J118">
+        <v>4842745.478417052</v>
+      </c>
+      <c r="K118">
+        <v>3986730.367925137</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119">
+        <v>5</v>
+      </c>
+      <c r="B119" t="s">
+        <v>12</v>
+      </c>
+      <c r="C119" t="s">
+        <v>15</v>
+      </c>
+      <c r="D119" t="s">
+        <v>18</v>
+      </c>
+      <c r="E119">
+        <v>163.142</v>
+      </c>
+      <c r="F119">
+        <v>1116484.690583118</v>
+      </c>
+      <c r="G119">
+        <v>4841187.407245512</v>
+      </c>
+      <c r="H119">
+        <v>3985631.753422353</v>
+      </c>
+      <c r="I119">
+        <v>1115231.487004692</v>
+      </c>
+      <c r="J119">
+        <v>4842696.826741216</v>
+      </c>
+      <c r="K119">
+        <v>3986882.677454286</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120">
+        <v>5</v>
+      </c>
+      <c r="B120" t="s">
+        <v>12</v>
+      </c>
+      <c r="C120" t="s">
+        <v>15</v>
+      </c>
+      <c r="D120" t="s">
+        <v>18</v>
+      </c>
+      <c r="E120">
+        <v>164.142</v>
+      </c>
+      <c r="F120">
+        <v>1116472.100637467</v>
+      </c>
+      <c r="G120">
+        <v>4841203.920053782</v>
+      </c>
+      <c r="H120">
+        <v>3985697.800342778</v>
+      </c>
+      <c r="I120">
+        <v>1115270.18670569</v>
+      </c>
+      <c r="J120">
+        <v>4842648.175065381</v>
+      </c>
+      <c r="K120">
+        <v>3987019.838308374</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121">
+        <v>5</v>
+      </c>
+      <c r="B121" t="s">
+        <v>12</v>
+      </c>
+      <c r="C121" t="s">
+        <v>15</v>
+      </c>
+      <c r="D121" t="s">
+        <v>18</v>
+      </c>
+      <c r="E121">
+        <v>165.142</v>
+      </c>
+      <c r="F121">
+        <v>1116462.708160985</v>
+      </c>
+      <c r="G121">
+        <v>4841220.432862053</v>
+      </c>
+      <c r="H121">
+        <v>3985751.897893672</v>
+      </c>
+      <c r="I121">
+        <v>1115309.839351222</v>
+      </c>
+      <c r="J121">
+        <v>4842599.523389545</v>
+      </c>
+      <c r="K121">
+        <v>3987141.850487401</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122">
+        <v>5</v>
+      </c>
+      <c r="B122" t="s">
+        <v>12</v>
+      </c>
+      <c r="C122" t="s">
+        <v>15</v>
+      </c>
+      <c r="D122" t="s">
+        <v>18</v>
+      </c>
+      <c r="E122">
+        <v>166.142</v>
+      </c>
+      <c r="F122">
+        <v>1116455.364555997</v>
+      </c>
+      <c r="G122">
+        <v>4841236.945670323</v>
+      </c>
+      <c r="H122">
+        <v>3985797.714570349</v>
+      </c>
+      <c r="I122">
+        <v>1115350.46840667</v>
+      </c>
+      <c r="J122">
+        <v>4842550.871713708</v>
+      </c>
+      <c r="K122">
+        <v>3987248.713991368</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123">
+        <v>5</v>
+      </c>
+      <c r="B123" t="s">
+        <v>12</v>
+      </c>
+      <c r="C123" t="s">
+        <v>15</v>
+      </c>
+      <c r="D123" t="s">
+        <v>18</v>
+      </c>
+      <c r="E123">
+        <v>167.142</v>
+      </c>
+      <c r="F123">
+        <v>1116449.423044856</v>
+      </c>
+      <c r="G123">
+        <v>4841253.458478593</v>
+      </c>
+      <c r="H123">
+        <v>3985837.452192906</v>
+      </c>
+      <c r="I123">
+        <v>1115392.097915231</v>
+      </c>
+      <c r="J123">
+        <v>4842502.220037873</v>
+      </c>
+      <c r="K123">
+        <v>3987340.428820273</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124">
+        <v>5</v>
+      </c>
+      <c r="B124" t="s">
+        <v>12</v>
+      </c>
+      <c r="C124" t="s">
+        <v>15</v>
+      </c>
+      <c r="D124" t="s">
+        <v>18</v>
+      </c>
+      <c r="E124">
+        <v>168.142</v>
+      </c>
+      <c r="F124">
+        <v>1116444.48947353</v>
+      </c>
+      <c r="G124">
+        <v>4841269.971286865</v>
+      </c>
+      <c r="H124">
+        <v>3985872.536581439</v>
+      </c>
+      <c r="I124">
+        <v>1115434.752512141</v>
+      </c>
+      <c r="J124">
+        <v>4842453.568362037</v>
+      </c>
+      <c r="K124">
+        <v>3987416.994974118</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125">
+        <v>5</v>
+      </c>
+      <c r="B125" t="s">
+        <v>12</v>
+      </c>
+      <c r="C125" t="s">
+        <v>15</v>
+      </c>
+      <c r="D125" t="s">
+        <v>18</v>
+      </c>
+      <c r="E125">
+        <v>169.142</v>
+      </c>
+      <c r="F125">
+        <v>1116440.308643036</v>
+      </c>
+      <c r="G125">
+        <v>4841286.484095135</v>
+      </c>
+      <c r="H125">
+        <v>3985903.944169168</v>
+      </c>
+      <c r="I125">
+        <v>1115478.457439259</v>
+      </c>
+      <c r="J125">
+        <v>4842404.916686201</v>
+      </c>
+      <c r="K125">
+        <v>3987478.412452901</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126">
+        <v>5</v>
+      </c>
+      <c r="B126" t="s">
+        <v>12</v>
+      </c>
+      <c r="C126" t="s">
+        <v>15</v>
+      </c>
+      <c r="D126" t="s">
+        <v>18</v>
+      </c>
+      <c r="E126">
+        <v>170.142</v>
+      </c>
+      <c r="F126">
+        <v>1116436.707265449</v>
+      </c>
+      <c r="G126">
+        <v>4841302.996903406</v>
+      </c>
+      <c r="H126">
+        <v>3985932.373024296</v>
+      </c>
+      <c r="I126">
+        <v>1115523.23856</v>
+      </c>
+      <c r="J126">
+        <v>4842356.265010364</v>
+      </c>
+      <c r="K126">
+        <v>3987524.681256624</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127">
+        <v>5</v>
+      </c>
+      <c r="B127" t="s">
+        <v>12</v>
+      </c>
+      <c r="C127" t="s">
+        <v>15</v>
+      </c>
+      <c r="D127" t="s">
+        <v>18</v>
+      </c>
+      <c r="E127">
+        <v>171.142</v>
+      </c>
+      <c r="F127">
+        <v>1116433.563076726</v>
+      </c>
+      <c r="G127">
+        <v>4841319.509711676</v>
+      </c>
+      <c r="H127">
+        <v>3985958.339537387</v>
+      </c>
+      <c r="I127">
+        <v>1115569.122374641</v>
+      </c>
+      <c r="J127">
+        <v>4842307.613334529</v>
+      </c>
+      <c r="K127">
+        <v>3987555.801385286</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128">
+        <v>5</v>
+      </c>
+      <c r="B128" t="s">
+        <v>12</v>
+      </c>
+      <c r="C128" t="s">
+        <v>15</v>
+      </c>
+      <c r="D128" t="s">
+        <v>18</v>
+      </c>
+      <c r="E128">
+        <v>172.142</v>
+      </c>
+      <c r="F128">
+        <v>1116430.787055256</v>
+      </c>
+      <c r="G128">
+        <v>4841336.022519946</v>
+      </c>
+      <c r="H128">
+        <v>3985982.236463274</v>
+      </c>
+      <c r="I128">
+        <v>1115616.136036005</v>
+      </c>
+      <c r="J128">
+        <v>4842258.961658693</v>
+      </c>
+      <c r="K128">
+        <v>3987571.772838888</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129">
+        <v>5</v>
+      </c>
+      <c r="B129" t="s">
+        <v>12</v>
+      </c>
+      <c r="C129" t="s">
+        <v>15</v>
+      </c>
+      <c r="D129" t="s">
+        <v>18</v>
+      </c>
+      <c r="E129">
+        <v>173.142</v>
+      </c>
+      <c r="F129">
+        <v>1116428.312657058</v>
+      </c>
+      <c r="G129">
+        <v>4841352.535328218</v>
+      </c>
+      <c r="H129">
+        <v>3986004.369488809</v>
+      </c>
+      <c r="I129">
+        <v>1115664.307365528</v>
+      </c>
+      <c r="J129">
+        <v>4842210.309982858</v>
+      </c>
+      <c r="K129">
+        <v>3987572.595617428</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130">
+        <v>5</v>
+      </c>
+      <c r="B130" t="s">
+        <v>12</v>
+      </c>
+      <c r="C130" t="s">
+        <v>15</v>
+      </c>
+      <c r="D130" t="s">
+        <v>18</v>
+      </c>
+      <c r="E130">
+        <v>174.142</v>
+      </c>
+      <c r="F130">
+        <v>1116426.089019498</v>
+      </c>
+      <c r="G130">
+        <v>4841369.048136489</v>
+      </c>
+      <c r="H130">
+        <v>3986024.981206974</v>
+      </c>
+      <c r="I130">
+        <v>1115713.664869724</v>
+      </c>
+      <c r="J130">
+        <v>4842161.658307021</v>
+      </c>
+      <c r="K130">
+        <v>3987558.269720907</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131">
+        <v>5</v>
+      </c>
+      <c r="B131" t="s">
+        <v>12</v>
+      </c>
+      <c r="C131" t="s">
+        <v>15</v>
+      </c>
+      <c r="D131" t="s">
+        <v>18</v>
+      </c>
+      <c r="E131">
+        <v>175.142</v>
+      </c>
+      <c r="F131">
+        <v>1116424.076515357</v>
+      </c>
+      <c r="G131">
+        <v>4841385.560944758</v>
+      </c>
+      <c r="H131">
+        <v>3986044.267368211</v>
+      </c>
+      <c r="I131">
+        <v>1115764.237757053</v>
+      </c>
+      <c r="J131">
+        <v>4842113.006631185</v>
+      </c>
+      <c r="K131">
+        <v>3987528.795149325</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132">
+        <v>5</v>
+      </c>
+      <c r="B132" t="s">
+        <v>12</v>
+      </c>
+      <c r="C132" t="s">
+        <v>15</v>
+      </c>
+      <c r="D132" t="s">
+        <v>18</v>
+      </c>
+      <c r="E132">
+        <v>176.142</v>
+      </c>
+      <c r="F132">
+        <v>1116422.243754559</v>
+      </c>
+      <c r="G132">
+        <v>4841402.073753029</v>
+      </c>
+      <c r="H132">
+        <v>3986062.388214424</v>
+      </c>
+      <c r="I132">
+        <v>1115816.055955206</v>
+      </c>
+      <c r="J132">
+        <v>4842064.35495535</v>
+      </c>
+      <c r="K132">
+        <v>3987484.171902683</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="A133">
+        <v>5</v>
+      </c>
+      <c r="B133" t="s">
+        <v>12</v>
+      </c>
+      <c r="C133" t="s">
+        <v>15</v>
+      </c>
+      <c r="D133" t="s">
+        <v>18</v>
+      </c>
+      <c r="E133">
+        <v>177.142</v>
+      </c>
+      <c r="F133">
+        <v>1116420.565508154</v>
+      </c>
+      <c r="G133">
+        <v>4841418.586561299</v>
+      </c>
+      <c r="H133">
+        <v>3986079.476579664</v>
+      </c>
+      <c r="I133">
+        <v>1115869.150128817</v>
+      </c>
+      <c r="J133">
+        <v>4842015.703279513</v>
+      </c>
+      <c r="K133">
+        <v>3987424.39998098</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="A134">
+        <v>5</v>
+      </c>
+      <c r="B134" t="s">
+        <v>12</v>
+      </c>
+      <c r="C134" t="s">
+        <v>15</v>
+      </c>
+      <c r="D134" t="s">
+        <v>18</v>
+      </c>
+      <c r="E134">
+        <v>178.142</v>
+      </c>
+      <c r="F134">
+        <v>1116419.021237344</v>
+      </c>
+      <c r="G134">
+        <v>4841435.09936957</v>
+      </c>
+      <c r="H134">
+        <v>3986095.643804893</v>
+      </c>
+      <c r="I134">
+        <v>1115923.551697607</v>
+      </c>
+      <c r="J134">
+        <v>4841967.051603678</v>
+      </c>
+      <c r="K134">
+        <v>3987349.479384216</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="A135">
+        <v>5</v>
+      </c>
+      <c r="B135" t="s">
+        <v>12</v>
+      </c>
+      <c r="C135" t="s">
+        <v>15</v>
+      </c>
+      <c r="D135" t="s">
+        <v>18</v>
+      </c>
+      <c r="E135">
+        <v>179.142</v>
+      </c>
+      <c r="F135">
+        <v>1116417.594029805</v>
+      </c>
+      <c r="G135">
+        <v>4841451.612177841</v>
+      </c>
+      <c r="H135">
+        <v>3986110.984138541</v>
+      </c>
+      <c r="I135">
+        <v>1115979.29285498</v>
+      </c>
+      <c r="J135">
+        <v>4841918.399927841</v>
+      </c>
+      <c r="K135">
+        <v>3987259.410112391</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="A136">
+        <v>5</v>
+      </c>
+      <c r="B136" t="s">
+        <v>12</v>
+      </c>
+      <c r="C136" t="s">
+        <v>15</v>
+      </c>
+      <c r="D136" t="s">
+        <v>18</v>
+      </c>
+      <c r="E136">
+        <v>180.142</v>
+      </c>
+      <c r="F136">
+        <v>1116416.269816501</v>
+      </c>
+      <c r="G136">
+        <v>4841468.124986111</v>
+      </c>
+      <c r="H136">
+        <v>3986125.578065461</v>
+      </c>
+      <c r="I136">
+        <v>1116036.406587073</v>
+      </c>
+      <c r="J136">
+        <v>4841869.748252006</v>
+      </c>
+      <c r="K136">
+        <v>3987154.192165506</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="A137">
+        <v>5</v>
+      </c>
+      <c r="B137" t="s">
+        <v>12</v>
+      </c>
+      <c r="C137" t="s">
+        <v>15</v>
+      </c>
+      <c r="D137" t="s">
+        <v>18</v>
+      </c>
+      <c r="E137">
+        <v>181.142</v>
+      </c>
+      <c r="F137">
+        <v>1116415.036785632</v>
+      </c>
+      <c r="G137">
+        <v>4841484.637794382</v>
+      </c>
+      <c r="H137">
+        <v>3986139.494862948</v>
+      </c>
+      <c r="I137">
+        <v>1116094.926692274</v>
+      </c>
+      <c r="J137">
+        <v>4841821.096576169</v>
+      </c>
+      <c r="K137">
+        <v>3987033.825543559</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
+      <c r="A138">
+        <v>5</v>
+      </c>
+      <c r="B138" t="s">
+        <v>12</v>
+      </c>
+      <c r="C138" t="s">
+        <v>15</v>
+      </c>
+      <c r="D138" t="s">
+        <v>18</v>
+      </c>
+      <c r="E138">
+        <v>182.142</v>
+      </c>
+      <c r="F138">
+        <v>1116413.884937673</v>
+      </c>
+      <c r="G138">
+        <v>4841501.150602653</v>
+      </c>
+      <c r="H138">
+        <v>3986152.79458963</v>
+      </c>
+      <c r="I138">
+        <v>1116154.887801229</v>
+      </c>
+      <c r="J138">
+        <v>4841772.444900334</v>
+      </c>
+      <c r="K138">
+        <v>3986898.310246551</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
+      <c r="A139">
+        <v>5</v>
+      </c>
+      <c r="B139" t="s">
+        <v>12</v>
+      </c>
+      <c r="C139" t="s">
+        <v>15</v>
+      </c>
+      <c r="D139" t="s">
+        <v>18</v>
+      </c>
+      <c r="E139">
+        <v>183.142</v>
+      </c>
+      <c r="F139">
+        <v>1116412.805743067</v>
+      </c>
+      <c r="G139">
+        <v>4841517.663410923</v>
+      </c>
+      <c r="H139">
+        <v>3986165.529651866</v>
+      </c>
+      <c r="I139">
+        <v>1116216.325397328</v>
+      </c>
+      <c r="J139">
+        <v>4841723.793224498</v>
+      </c>
+      <c r="K139">
+        <v>3986747.646274482</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
+      <c r="A140">
+        <v>5</v>
+      </c>
+      <c r="B140" t="s">
+        <v>12</v>
+      </c>
+      <c r="C140" t="s">
+        <v>15</v>
+      </c>
+      <c r="D140" t="s">
+        <v>18</v>
+      </c>
+      <c r="E140">
+        <v>184.142</v>
+      </c>
+      <c r="F140">
+        <v>1116411.791875718</v>
+      </c>
+      <c r="G140">
+        <v>4841534.176219194</v>
+      </c>
+      <c r="H140">
+        <v>3986177.746050954</v>
+      </c>
+      <c r="I140">
+        <v>1116279.27583771</v>
+      </c>
+      <c r="J140">
+        <v>4841675.141548662</v>
+      </c>
+      <c r="K140">
+        <v>3986581.833627353</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
+      <c r="A141">
+        <v>5</v>
+      </c>
+      <c r="B141" t="s">
+        <v>12</v>
+      </c>
+      <c r="C141" t="s">
+        <v>15</v>
+      </c>
+      <c r="D141" t="s">
+        <v>18</v>
+      </c>
+      <c r="E141">
+        <v>185.142</v>
+      </c>
+      <c r="F141">
+        <v>1116410.83700323</v>
+      </c>
+      <c r="G141">
+        <v>4841550.689027464</v>
+      </c>
+      <c r="H141">
+        <v>3986189.484386163</v>
+      </c>
+      <c r="I141">
+        <v>1116343.776374773</v>
+      </c>
+      <c r="J141">
+        <v>4841626.489872825</v>
+      </c>
+      <c r="K141">
+        <v>3986400.872305163</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
+      <c r="A142">
+        <v>5</v>
+      </c>
+      <c r="B142" t="s">
+        <v>12</v>
+      </c>
+      <c r="C142" t="s">
+        <v>15</v>
+      </c>
+      <c r="D142" t="s">
+        <v>18</v>
+      </c>
+      <c r="E142">
+        <v>186.142</v>
+      </c>
+      <c r="F142">
+        <v>1116409.935620146</v>
+      </c>
+      <c r="G142">
+        <v>4841567.201835735</v>
+      </c>
+      <c r="H142">
+        <v>3986200.780668796</v>
+      </c>
+      <c r="I142">
+        <v>1116409.865178222</v>
+      </c>
+      <c r="J142">
+        <v>4841577.83819699</v>
+      </c>
+      <c r="K142">
+        <v>3986204.762307913</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
+      <c r="A143">
+        <v>5</v>
+      </c>
+      <c r="B143" t="s">
+        <v>12</v>
+      </c>
+      <c r="C143" t="s">
+        <v>15</v>
+      </c>
+      <c r="D143" t="s">
+        <v>18</v>
+      </c>
+      <c r="E143">
+        <v>187.142</v>
+      </c>
+      <c r="F143">
+        <v>1116409.082914151</v>
+      </c>
+      <c r="G143">
+        <v>4841583.714644006</v>
+      </c>
+      <c r="H143">
+        <v>3986211.666988458</v>
+      </c>
+      <c r="I143">
+        <v>1116477.581357654</v>
+      </c>
+      <c r="J143">
+        <v>4841529.186521155</v>
+      </c>
+      <c r="K143">
+        <v>3985993.5036356</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
+      <c r="A144">
+        <v>5</v>
+      </c>
+      <c r="B144" t="s">
+        <v>12</v>
+      </c>
+      <c r="C144" t="s">
+        <v>15</v>
+      </c>
+      <c r="D144" t="s">
+        <v>18</v>
+      </c>
+      <c r="E144">
+        <v>188.142</v>
+      </c>
+      <c r="F144">
+        <v>1116408.274657805</v>
+      </c>
+      <c r="G144">
+        <v>4841600.227452275</v>
+      </c>
+      <c r="H144">
+        <v>3986222.172062608</v>
+      </c>
+      <c r="I144">
+        <v>1116546.964985708</v>
+      </c>
+      <c r="J144">
+        <v>4841480.534845319</v>
+      </c>
+      <c r="K144">
+        <v>3985767.096288227</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
+      <c r="A145">
+        <v>5</v>
+      </c>
+      <c r="B145" t="s">
+        <v>12</v>
+      </c>
+      <c r="C145" t="s">
+        <v>15</v>
+      </c>
+      <c r="D145" t="s">
+        <v>18</v>
+      </c>
+      <c r="E145">
+        <v>189.142</v>
+      </c>
+      <c r="F145">
+        <v>1116407.507120242</v>
+      </c>
+      <c r="G145">
+        <v>4841616.740260546</v>
+      </c>
+      <c r="H145">
+        <v>3986232.321693095</v>
+      </c>
+      <c r="I145">
+        <v>1116618.057121771</v>
+      </c>
+      <c r="J145">
+        <v>4841431.883169482</v>
+      </c>
+      <c r="K145">
+        <v>3985525.540265794</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
+      <c r="A146">
+        <v>5</v>
+      </c>
+      <c r="B146" t="s">
+        <v>12</v>
+      </c>
+      <c r="C146" t="s">
+        <v>15</v>
+      </c>
+      <c r="D146" t="s">
+        <v>18</v>
+      </c>
+      <c r="E146">
+        <v>190.142</v>
+      </c>
+      <c r="F146">
+        <v>1116406.776994638</v>
+      </c>
+      <c r="G146">
+        <v>4841633.253068818</v>
+      </c>
+      <c r="H146">
+        <v>3986242.139147957</v>
+      </c>
+      <c r="I146">
+        <v>1116690.899836281</v>
+      </c>
+      <c r="J146">
+        <v>4841383.231493646</v>
+      </c>
+      <c r="K146">
+        <v>3985268.8355683</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
+      <c r="A147">
+        <v>5</v>
+      </c>
+      <c r="B147" t="s">
+        <v>12</v>
+      </c>
+      <c r="C147" t="s">
+        <v>15</v>
+      </c>
+      <c r="D147" t="s">
+        <v>18</v>
+      </c>
+      <c r="E147">
+        <v>191.142</v>
+      </c>
+      <c r="F147">
+        <v>1116406.081338206</v>
+      </c>
+      <c r="G147">
+        <v>4841649.765877088</v>
+      </c>
+      <c r="H147">
+        <v>3986251.645482702</v>
+      </c>
+      <c r="I147">
+        <v>1116765.536235622</v>
+      </c>
+      <c r="J147">
+        <v>4841334.579817811</v>
+      </c>
+      <c r="K147">
+        <v>3984996.982195744</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
+      <c r="A148">
+        <v>5</v>
+      </c>
+      <c r="B148" t="s">
+        <v>12</v>
+      </c>
+      <c r="C148" t="s">
+        <v>15</v>
+      </c>
+      <c r="D148" t="s">
+        <v>18</v>
+      </c>
+      <c r="E148">
+        <v>192.142</v>
+      </c>
+      <c r="F148">
+        <v>1116405.417522258</v>
+      </c>
+      <c r="G148">
+        <v>4841666.278685358</v>
+      </c>
+      <c r="H148">
+        <v>3986260.859812228</v>
+      </c>
+      <c r="I148">
+        <v>1116842.010487632</v>
+      </c>
+      <c r="J148">
+        <v>4841285.928141975</v>
+      </c>
+      <c r="K148">
+        <v>3984709.980148128</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
+      <c r="A149">
+        <v>5</v>
+      </c>
+      <c r="B149" t="s">
+        <v>12</v>
+      </c>
+      <c r="C149" t="s">
+        <v>15</v>
+      </c>
+      <c r="D149" t="s">
+        <v>18</v>
+      </c>
+      <c r="E149">
+        <v>193.142</v>
+      </c>
+      <c r="F149">
+        <v>1116404.783190385</v>
+      </c>
+      <c r="G149">
+        <v>4841682.791493629</v>
+      </c>
+      <c r="H149">
+        <v>3986269.799542209</v>
+      </c>
+      <c r="I149">
+        <v>1116920.367847743</v>
+      </c>
+      <c r="J149">
+        <v>4841237.276466139</v>
+      </c>
+      <c r="K149">
+        <v>3984407.829425451</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
+      <c r="A150">
+        <v>5</v>
+      </c>
+      <c r="B150" t="s">
+        <v>12</v>
+      </c>
+      <c r="C150" t="s">
+        <v>15</v>
+      </c>
+      <c r="D150" t="s">
+        <v>18</v>
+      </c>
+      <c r="E150">
+        <v>194.142</v>
+      </c>
+      <c r="F150">
+        <v>1116404.176223249</v>
+      </c>
+      <c r="G150">
+        <v>4841699.304301899</v>
+      </c>
+      <c r="H150">
+        <v>3986278.480566993</v>
+      </c>
+      <c r="I150">
+        <v>1117000.654685759</v>
+      </c>
+      <c r="J150">
+        <v>4841188.624790302</v>
+      </c>
+      <c r="K150">
+        <v>3984090.530027713</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
+      <c r="A151">
+        <v>5</v>
+      </c>
+      <c r="B151" t="s">
+        <v>12</v>
+      </c>
+      <c r="C151" t="s">
+        <v>15</v>
+      </c>
+      <c r="D151" t="s">
+        <v>18</v>
+      </c>
+      <c r="E151">
+        <v>195.142</v>
+      </c>
+      <c r="F151">
+        <v>1116403.594708781</v>
+      </c>
+      <c r="G151">
+        <v>4841715.817110171</v>
+      </c>
+      <c r="H151">
+        <v>3986286.917439663</v>
+      </c>
+      <c r="I151">
+        <v>1117082.918513299</v>
+      </c>
+      <c r="J151">
+        <v>4841139.973114467</v>
+      </c>
+      <c r="K151">
+        <v>3983758.081954914</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
+      <c r="A152">
+        <v>5</v>
+      </c>
+      <c r="B152" t="s">
+        <v>12</v>
+      </c>
+      <c r="C152" t="s">
+        <v>15</v>
+      </c>
+      <c r="D152" t="s">
+        <v>18</v>
+      </c>
+      <c r="E152">
+        <v>196.142</v>
+      </c>
+      <c r="F152">
+        <v>1116403.036916829</v>
+      </c>
+      <c r="G152">
+        <v>4841732.32991844</v>
+      </c>
+      <c r="H152">
+        <v>3986295.123518826</v>
+      </c>
+      <c r="I152">
+        <v>1117167.20801191</v>
+      </c>
+      <c r="J152">
+        <v>4841091.32143863</v>
+      </c>
+      <c r="K152">
+        <v>3983410.485207054</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
+      <c r="A153">
+        <v>5</v>
+      </c>
+      <c r="B153" t="s">
+        <v>12</v>
+      </c>
+      <c r="C153" t="s">
+        <v>15</v>
+      </c>
+      <c r="D153" t="s">
+        <v>18</v>
+      </c>
+      <c r="E153">
+        <v>197.142</v>
+      </c>
+      <c r="F153">
+        <v>1116402.501277505</v>
+      </c>
+      <c r="G153">
+        <v>4841748.842726711</v>
+      </c>
+      <c r="H153">
+        <v>3986303.111095864</v>
+      </c>
+      <c r="I153">
+        <v>1117253.57306188</v>
+      </c>
+      <c r="J153">
+        <v>4841042.669762795</v>
+      </c>
+      <c r="K153">
+        <v>3983047.739784134</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
+      <c r="A154">
+        <v>5</v>
+      </c>
+      <c r="B154" t="s">
+        <v>12</v>
+      </c>
+      <c r="C154" t="s">
+        <v>15</v>
+      </c>
+      <c r="D154" t="s">
+        <v>18</v>
+      </c>
+      <c r="E154">
+        <v>198.142</v>
+      </c>
+      <c r="F154">
+        <v>1116401.986362586</v>
+      </c>
+      <c r="G154">
+        <v>4841765.355534982</v>
+      </c>
+      <c r="H154">
+        <v>3986310.891505665</v>
+      </c>
+      <c r="I154">
+        <v>1117342.064771751</v>
+      </c>
+      <c r="J154">
+        <v>4840994.01808696</v>
+      </c>
+      <c r="K154">
+        <v>3982669.845686153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
+      <c r="A155">
+        <v>5</v>
+      </c>
+      <c r="B155" t="s">
+        <v>12</v>
+      </c>
+      <c r="C155" t="s">
+        <v>15</v>
+      </c>
+      <c r="D155" t="s">
+        <v>18</v>
+      </c>
+      <c r="E155">
+        <v>199.142</v>
+      </c>
+      <c r="F155">
+        <v>1116401.4908695</v>
+      </c>
+      <c r="G155">
+        <v>4841781.868343252</v>
+      </c>
+      <c r="H155">
+        <v>3986318.475223372</v>
+      </c>
+      <c r="I155">
+        <v>1117432.735508567</v>
+      </c>
+      <c r="J155">
+        <v>4840945.366411123</v>
+      </c>
+      <c r="K155">
+        <v>3982276.80291311</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
+      <c r="A156">
+        <v>5</v>
+      </c>
+      <c r="B156" t="s">
+        <v>12</v>
+      </c>
+      <c r="C156" t="s">
+        <v>15</v>
+      </c>
+      <c r="D156" t="s">
+        <v>18</v>
+      </c>
+      <c r="E156">
+        <v>200.142</v>
+      </c>
+      <c r="F156">
+        <v>1116401.013607463</v>
+      </c>
+      <c r="G156">
+        <v>4841798.381151523</v>
+      </c>
+      <c r="H156">
+        <v>3986325.871949184</v>
+      </c>
+      <c r="I156">
+        <v>1117525.638928861</v>
+      </c>
+      <c r="J156">
+        <v>4840896.714735287</v>
+      </c>
+      <c r="K156">
+        <v>3981868.611465007</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
+      <c r="A157">
+        <v>5</v>
+      </c>
+      <c r="B157" t="s">
+        <v>12</v>
+      </c>
+      <c r="C157" t="s">
+        <v>15</v>
+      </c>
+      <c r="D157" t="s">
+        <v>18</v>
+      </c>
+      <c r="E157">
+        <v>201.142</v>
+      </c>
+      <c r="F157">
+        <v>1116400.553485438</v>
+      </c>
+      <c r="G157">
+        <v>4841814.893959794</v>
+      </c>
+      <c r="H157">
+        <v>3986333.090682962</v>
+      </c>
+      <c r="I157">
+        <v>1117620.830010411</v>
+      </c>
+      <c r="J157">
+        <v>4840848.063059451</v>
+      </c>
+      <c r="K157">
+        <v>3981445.271341843</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
+      <c r="A158">
+        <v>5</v>
+      </c>
+      <c r="B158" t="s">
+        <v>12</v>
+      </c>
+      <c r="C158" t="s">
+        <v>15</v>
+      </c>
+      <c r="D158" t="s">
+        <v>18</v>
+      </c>
+      <c r="E158">
+        <v>202.142</v>
+      </c>
+      <c r="F158">
+        <v>1116400.109501648</v>
+      </c>
+      <c r="G158">
+        <v>4841831.406768064</v>
+      </c>
+      <c r="H158">
+        <v>3986340.139790066</v>
+      </c>
+      <c r="I158">
+        <v>1117718.365084769</v>
+      </c>
+      <c r="J158">
+        <v>4840799.411383616</v>
+      </c>
+      <c r="K158">
+        <v>3981006.782543618</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
+      <c r="A159">
+        <v>5</v>
+      </c>
+      <c r="B159" t="s">
+        <v>12</v>
+      </c>
+      <c r="C159" t="s">
+        <v>15</v>
+      </c>
+      <c r="D159" t="s">
+        <v>18</v>
+      </c>
+      <c r="E159">
+        <v>203.142</v>
+      </c>
+      <c r="F159">
+        <v>1116399.680734404</v>
+      </c>
+      <c r="G159">
+        <v>4841847.919576335</v>
+      </c>
+      <c r="H159">
+        <v>3986347.027059633</v>
+      </c>
+      <c r="I159">
+        <v>1117818.301870603</v>
+      </c>
+      <c r="J159">
+        <v>4840750.75970778</v>
+      </c>
+      <c r="K159">
+        <v>3980553.145070333</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
+      <c r="A160">
+        <v>5</v>
+      </c>
+      <c r="B160" t="s">
+        <v>12</v>
+      </c>
+      <c r="C160" t="s">
+        <v>15</v>
+      </c>
+      <c r="D160" t="s">
+        <v>18</v>
+      </c>
+      <c r="E160">
+        <v>204.142</v>
+      </c>
+      <c r="F160">
+        <v>1116399.266334053</v>
+      </c>
+      <c r="G160">
+        <v>4841864.432384606</v>
+      </c>
+      <c r="H160">
+        <v>3986353.759756311</v>
+      </c>
+      <c r="I160">
+        <v>1117920.699507848</v>
+      </c>
+      <c r="J160">
+        <v>4840702.108031943</v>
+      </c>
+      <c r="K160">
+        <v>3980084.358921986</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11">
+      <c r="A161">
+        <v>5</v>
+      </c>
+      <c r="B161" t="s">
+        <v>12</v>
+      </c>
+      <c r="C161" t="s">
+        <v>16</v>
+      </c>
+      <c r="D161" t="s">
+        <v>18</v>
+      </c>
+      <c r="E161">
+        <v>152.142</v>
+      </c>
+      <c r="F161">
+        <v>1116579.301879236</v>
+      </c>
+      <c r="G161">
+        <v>4841132.571653412</v>
+      </c>
+      <c r="H161">
+        <v>3985223.204844424</v>
+      </c>
+      <c r="I161">
+        <v>1114860.261670242</v>
+      </c>
+      <c r="J161">
+        <v>4843222.658237362</v>
+      </c>
+      <c r="K161">
+        <v>3984365.271817345</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11">
+      <c r="A162">
+        <v>5</v>
+      </c>
+      <c r="B162" t="s">
+        <v>12</v>
+      </c>
+      <c r="C162" t="s">
+        <v>16</v>
+      </c>
+      <c r="D162" t="s">
+        <v>18</v>
+      </c>
+      <c r="E162">
+        <v>153.142</v>
+      </c>
+      <c r="F162">
+        <v>1116579.301879236</v>
+      </c>
+      <c r="G162">
+        <v>4841132.571653412</v>
+      </c>
+      <c r="H162">
+        <v>3985223.204844424</v>
+      </c>
+      <c r="I162">
+        <v>1114889.875637599</v>
+      </c>
+      <c r="J162">
+        <v>4843174.006655319</v>
+      </c>
+      <c r="K162">
+        <v>3984669.067424323</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11">
+      <c r="A163">
+        <v>5</v>
+      </c>
+      <c r="B163" t="s">
+        <v>12</v>
+      </c>
+      <c r="C163" t="s">
+        <v>16</v>
+      </c>
+      <c r="D163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E163">
+        <v>154.142</v>
+      </c>
+      <c r="F163">
+        <v>1116579.301879236</v>
+      </c>
+      <c r="G163">
+        <v>4841132.571653412</v>
+      </c>
+      <c r="H163">
+        <v>3985223.204844424</v>
+      </c>
+      <c r="I163">
+        <v>1114920.218821659</v>
+      </c>
+      <c r="J163">
+        <v>4843125.355073274</v>
+      </c>
+      <c r="K163">
+        <v>3984957.714389789</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11">
+      <c r="A164">
+        <v>5</v>
+      </c>
+      <c r="B164" t="s">
+        <v>12</v>
+      </c>
+      <c r="C164" t="s">
+        <v>16</v>
+      </c>
+      <c r="D164" t="s">
+        <v>18</v>
+      </c>
+      <c r="E164">
+        <v>155.142</v>
+      </c>
+      <c r="F164">
+        <v>1116579.301879236</v>
+      </c>
+      <c r="G164">
+        <v>4841132.571653412</v>
+      </c>
+      <c r="H164">
+        <v>3985223.204844424</v>
+      </c>
+      <c r="I164">
+        <v>1114951.30917871</v>
+      </c>
+      <c r="J164">
+        <v>4843076.70349123</v>
+      </c>
+      <c r="K164">
+        <v>3985231.212713741</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11">
+      <c r="A165">
+        <v>5</v>
+      </c>
+      <c r="B165" t="s">
+        <v>12</v>
+      </c>
+      <c r="C165" t="s">
+        <v>16</v>
+      </c>
+      <c r="D165" t="s">
+        <v>18</v>
+      </c>
+      <c r="E165">
+        <v>156.142</v>
+      </c>
+      <c r="F165">
+        <v>1116579.301879236</v>
+      </c>
+      <c r="G165">
+        <v>4841132.571653412</v>
+      </c>
+      <c r="H165">
+        <v>3985223.204844424</v>
+      </c>
+      <c r="I165">
+        <v>1114983.165107201</v>
+      </c>
+      <c r="J165">
+        <v>4843028.051909188</v>
+      </c>
+      <c r="K165">
+        <v>3985489.562396181</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11">
+      <c r="A166">
+        <v>5</v>
+      </c>
+      <c r="B166" t="s">
+        <v>12</v>
+      </c>
+      <c r="C166" t="s">
+        <v>16</v>
+      </c>
+      <c r="D166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E166">
+        <v>157.142</v>
+      </c>
+      <c r="F166">
+        <v>1116579.301879236</v>
+      </c>
+      <c r="G166">
+        <v>4841132.571653412</v>
+      </c>
+      <c r="H166">
+        <v>3985223.204844424</v>
+      </c>
+      <c r="I166">
+        <v>1115015.805458625</v>
+      </c>
+      <c r="J166">
+        <v>4842979.400327144</v>
+      </c>
+      <c r="K166">
+        <v>3985732.763437107</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11">
+      <c r="A167">
+        <v>5</v>
+      </c>
+      <c r="B167" t="s">
+        <v>12</v>
+      </c>
+      <c r="C167" t="s">
+        <v>16</v>
+      </c>
+      <c r="D167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E167">
+        <v>158.142</v>
+      </c>
+      <c r="F167">
+        <v>1116579.301879236</v>
+      </c>
+      <c r="G167">
+        <v>4841132.571653412</v>
+      </c>
+      <c r="H167">
+        <v>3985223.204844424</v>
+      </c>
+      <c r="I167">
+        <v>1115049.249548673</v>
+      </c>
+      <c r="J167">
+        <v>4842930.7487451</v>
+      </c>
+      <c r="K167">
+        <v>3985960.81583652</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11">
+      <c r="A168">
+        <v>5</v>
+      </c>
+      <c r="B168" t="s">
+        <v>12</v>
+      </c>
+      <c r="C168" t="s">
+        <v>16</v>
+      </c>
+      <c r="D168" t="s">
+        <v>18</v>
+      </c>
+      <c r="E168">
+        <v>159.142</v>
+      </c>
+      <c r="F168">
+        <v>1116579.301879236</v>
+      </c>
+      <c r="G168">
+        <v>4841132.571653412</v>
+      </c>
+      <c r="H168">
+        <v>3985223.204844424</v>
+      </c>
+      <c r="I168">
+        <v>1115083.517168671</v>
+      </c>
+      <c r="J168">
+        <v>4842882.097163056</v>
+      </c>
+      <c r="K168">
+        <v>3986173.719594421</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11">
+      <c r="A169">
+        <v>5</v>
+      </c>
+      <c r="B169" t="s">
+        <v>12</v>
+      </c>
+      <c r="C169" t="s">
+        <v>16</v>
+      </c>
+      <c r="D169" t="s">
+        <v>18</v>
+      </c>
+      <c r="E169">
+        <v>160.142</v>
+      </c>
+      <c r="F169">
+        <v>1116579.301879236</v>
+      </c>
+      <c r="G169">
+        <v>4841149.084499939</v>
+      </c>
+      <c r="H169">
+        <v>3985223.204844424</v>
+      </c>
+      <c r="I169">
+        <v>1115118.628597286</v>
+      </c>
+      <c r="J169">
+        <v>4842833.445581013</v>
+      </c>
+      <c r="K169">
+        <v>3986371.474710808</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11">
+      <c r="A170">
+        <v>5</v>
+      </c>
+      <c r="B170" t="s">
+        <v>12</v>
+      </c>
+      <c r="C170" t="s">
+        <v>16</v>
+      </c>
+      <c r="D170" t="s">
+        <v>18</v>
+      </c>
+      <c r="E170">
+        <v>161.142</v>
+      </c>
+      <c r="F170">
+        <v>1116530.621280673</v>
+      </c>
+      <c r="G170">
+        <v>4841165.597346465</v>
+      </c>
+      <c r="H170">
+        <v>3985422.458995032</v>
+      </c>
+      <c r="I170">
+        <v>1115154.604612529</v>
+      </c>
+      <c r="J170">
+        <v>4842784.79399897</v>
+      </c>
+      <c r="K170">
+        <v>3986554.081185683</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11">
+      <c r="A171">
+        <v>5</v>
+      </c>
+      <c r="B171" t="s">
+        <v>12</v>
+      </c>
+      <c r="C171" t="s">
+        <v>16</v>
+      </c>
+      <c r="D171" t="s">
+        <v>18</v>
+      </c>
+      <c r="E171">
+        <v>162.142</v>
+      </c>
+      <c r="F171">
+        <v>1116502.023871101</v>
+      </c>
+      <c r="G171">
+        <v>4841182.110192992</v>
+      </c>
+      <c r="H171">
+        <v>3985541.144957379</v>
+      </c>
+      <c r="I171">
+        <v>1115191.466504049</v>
+      </c>
+      <c r="J171">
+        <v>4842736.142416925</v>
+      </c>
+      <c r="K171">
+        <v>3986721.539019044</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11">
+      <c r="A172">
+        <v>5</v>
+      </c>
+      <c r="B172" t="s">
+        <v>12</v>
+      </c>
+      <c r="C172" t="s">
+        <v>16</v>
+      </c>
+      <c r="D172" t="s">
+        <v>18</v>
+      </c>
+      <c r="E172">
+        <v>163.142</v>
+      </c>
+      <c r="F172">
+        <v>1116483.971088166</v>
+      </c>
+      <c r="G172">
+        <v>4841198.623039518</v>
+      </c>
+      <c r="H172">
+        <v>3985625.96179299</v>
+      </c>
+      <c r="I172">
+        <v>1115229.236085736</v>
+      </c>
+      <c r="J172">
+        <v>4842687.490834882</v>
+      </c>
+      <c r="K172">
+        <v>3986873.848210892</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11">
+      <c r="A173">
+        <v>5</v>
+      </c>
+      <c r="B173" t="s">
+        <v>12</v>
+      </c>
+      <c r="C173" t="s">
+        <v>16</v>
+      </c>
+      <c r="D173" t="s">
+        <v>18</v>
+      </c>
+      <c r="E173">
+        <v>164.142</v>
+      </c>
+      <c r="F173">
+        <v>1116471.381150628</v>
+      </c>
+      <c r="G173">
+        <v>4841215.135886044</v>
+      </c>
+      <c r="H173">
+        <v>3985692.008617439</v>
+      </c>
+      <c r="I173">
+        <v>1115267.935708625</v>
+      </c>
+      <c r="J173">
+        <v>4842638.839252838</v>
+      </c>
+      <c r="K173">
+        <v>3987011.008761228</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11">
+      <c r="A174">
+        <v>5</v>
+      </c>
+      <c r="B174" t="s">
+        <v>12</v>
+      </c>
+      <c r="C174" t="s">
+        <v>16</v>
+      </c>
+      <c r="D174" t="s">
+        <v>18</v>
+      </c>
+      <c r="E174">
+        <v>165.142</v>
+      </c>
+      <c r="F174">
+        <v>1116461.988680199</v>
+      </c>
+      <c r="G174">
+        <v>4841231.648732572</v>
+      </c>
+      <c r="H174">
+        <v>3985746.106089723</v>
+      </c>
+      <c r="I174">
+        <v>1115307.588274124</v>
+      </c>
+      <c r="J174">
+        <v>4842590.187670795</v>
+      </c>
+      <c r="K174">
+        <v>3987133.02067005</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11">
+      <c r="A175">
+        <v>5</v>
+      </c>
+      <c r="B175" t="s">
+        <v>12</v>
+      </c>
+      <c r="C175" t="s">
+        <v>16</v>
+      </c>
+      <c r="D175" t="s">
+        <v>18</v>
+      </c>
+      <c r="E175">
+        <v>166.142</v>
+      </c>
+      <c r="F175">
+        <v>1116454.645079944</v>
+      </c>
+      <c r="G175">
+        <v>4841248.161579098</v>
+      </c>
+      <c r="H175">
+        <v>3985791.922699823</v>
+      </c>
+      <c r="I175">
+        <v>1115348.217247569</v>
+      </c>
+      <c r="J175">
+        <v>4842541.536088751</v>
+      </c>
+      <c r="K175">
+        <v>3987239.883937359</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11">
+      <c r="A176">
+        <v>5</v>
+      </c>
+      <c r="B176" t="s">
+        <v>12</v>
+      </c>
+      <c r="C176" t="s">
+        <v>16</v>
+      </c>
+      <c r="D176" t="s">
+        <v>18</v>
+      </c>
+      <c r="E176">
+        <v>167.142</v>
+      </c>
+      <c r="F176">
+        <v>1116448.703572632</v>
+      </c>
+      <c r="G176">
+        <v>4841264.674425624</v>
+      </c>
+      <c r="H176">
+        <v>3985831.660264635</v>
+      </c>
+      <c r="I176">
+        <v>1115389.846672107</v>
+      </c>
+      <c r="J176">
+        <v>4842492.884506707</v>
+      </c>
+      <c r="K176">
+        <v>3987331.598563156</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11">
+      <c r="A177">
+        <v>5</v>
+      </c>
+      <c r="B177" t="s">
+        <v>12</v>
+      </c>
+      <c r="C177" t="s">
+        <v>16</v>
+      </c>
+      <c r="D177" t="s">
+        <v>18</v>
+      </c>
+      <c r="E177">
+        <v>168.142</v>
+      </c>
+      <c r="F177">
+        <v>1116443.770004485</v>
+      </c>
+      <c r="G177">
+        <v>4841281.187272151</v>
+      </c>
+      <c r="H177">
+        <v>3985866.744602187</v>
+      </c>
+      <c r="I177">
+        <v>1115432.501182926</v>
+      </c>
+      <c r="J177">
+        <v>4842444.232924663</v>
+      </c>
+      <c r="K177">
+        <v>3987408.164547439</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11">
+      <c r="A178">
+        <v>5</v>
+      </c>
+      <c r="B178" t="s">
+        <v>12</v>
+      </c>
+      <c r="C178" t="s">
+        <v>16</v>
+      </c>
+      <c r="D178" t="s">
+        <v>18</v>
+      </c>
+      <c r="E178">
+        <v>169.142</v>
+      </c>
+      <c r="F178">
+        <v>1116439.589176685</v>
+      </c>
+      <c r="G178">
+        <v>4841297.700118678</v>
+      </c>
+      <c r="H178">
+        <v>3985898.152144277</v>
+      </c>
+      <c r="I178">
+        <v>1115476.206021833</v>
+      </c>
+      <c r="J178">
+        <v>4842395.581342621</v>
+      </c>
+      <c r="K178">
+        <v>3987469.581890209</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11">
+      <c r="A179">
+        <v>5</v>
+      </c>
+      <c r="B179" t="s">
+        <v>12</v>
+      </c>
+      <c r="C179" t="s">
+        <v>16</v>
+      </c>
+      <c r="D179" t="s">
+        <v>18</v>
+      </c>
+      <c r="E179">
+        <v>170.142</v>
+      </c>
+      <c r="F179">
+        <v>1116435.987801419</v>
+      </c>
+      <c r="G179">
+        <v>4841314.212965204</v>
+      </c>
+      <c r="H179">
+        <v>3985926.580958093</v>
+      </c>
+      <c r="I179">
+        <v>1115520.98705219</v>
+      </c>
+      <c r="J179">
+        <v>4842346.929760576</v>
+      </c>
+      <c r="K179">
+        <v>3987515.850591466</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11">
+      <c r="A180">
+        <v>5</v>
+      </c>
+      <c r="B180" t="s">
+        <v>12</v>
+      </c>
+      <c r="C180" t="s">
+        <v>16</v>
+      </c>
+      <c r="D180" t="s">
+        <v>18</v>
+      </c>
+      <c r="E180">
+        <v>171.142</v>
+      </c>
+      <c r="F180">
+        <v>1116432.843614723</v>
+      </c>
+      <c r="G180">
+        <v>4841330.725811731</v>
+      </c>
+      <c r="H180">
+        <v>3985952.547433452</v>
+      </c>
+      <c r="I180">
+        <v>1115566.870774221</v>
+      </c>
+      <c r="J180">
+        <v>4842298.278178533</v>
+      </c>
+      <c r="K180">
+        <v>3987546.970651211</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11">
+      <c r="A181">
+        <v>5</v>
+      </c>
+      <c r="B181" t="s">
+        <v>12</v>
+      </c>
+      <c r="C181" t="s">
+        <v>16</v>
+      </c>
+      <c r="D181" t="s">
+        <v>18</v>
+      </c>
+      <c r="E181">
+        <v>172.142</v>
+      </c>
+      <c r="F181">
+        <v>1116430.067595041</v>
+      </c>
+      <c r="G181">
+        <v>4841347.238658257</v>
+      </c>
+      <c r="H181">
+        <v>3985976.444324614</v>
+      </c>
+      <c r="I181">
+        <v>1115613.884340696</v>
+      </c>
+      <c r="J181">
+        <v>4842249.626596489</v>
+      </c>
+      <c r="K181">
+        <v>3987562.942069442</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11">
+      <c r="A182">
+        <v>5</v>
+      </c>
+      <c r="B182" t="s">
+        <v>12</v>
+      </c>
+      <c r="C182" t="s">
+        <v>16</v>
+      </c>
+      <c r="D182" t="s">
+        <v>18</v>
+      </c>
+      <c r="E182">
+        <v>173.142</v>
+      </c>
+      <c r="F182">
+        <v>1116427.593198438</v>
+      </c>
+      <c r="G182">
+        <v>4841363.751504784</v>
+      </c>
+      <c r="H182">
+        <v>3985998.577317987</v>
+      </c>
+      <c r="I182">
+        <v>1115662.055572993</v>
+      </c>
+      <c r="J182">
+        <v>4842200.975014445</v>
+      </c>
+      <c r="K182">
+        <v>3987563.76484616</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11">
+      <c r="A183">
+        <v>5</v>
+      </c>
+      <c r="B183" t="s">
+        <v>12</v>
+      </c>
+      <c r="C183" t="s">
+        <v>16</v>
+      </c>
+      <c r="D183" t="s">
+        <v>18</v>
+      </c>
+      <c r="E183">
+        <v>174.142</v>
+      </c>
+      <c r="F183">
+        <v>1116425.369562311</v>
+      </c>
+      <c r="G183">
+        <v>4841380.264351311</v>
+      </c>
+      <c r="H183">
+        <v>3986019.1890062</v>
+      </c>
+      <c r="I183">
+        <v>1115711.412977569</v>
+      </c>
+      <c r="J183">
+        <v>4842152.323432402</v>
+      </c>
+      <c r="K183">
+        <v>3987549.438981365</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11">
+      <c r="A184">
+        <v>5</v>
+      </c>
+      <c r="B184" t="s">
+        <v>12</v>
+      </c>
+      <c r="C184" t="s">
+        <v>16</v>
+      </c>
+      <c r="D184" t="s">
+        <v>18</v>
+      </c>
+      <c r="E184">
+        <v>175.142</v>
+      </c>
+      <c r="F184">
+        <v>1116423.357059467</v>
+      </c>
+      <c r="G184">
+        <v>4841396.777197837</v>
+      </c>
+      <c r="H184">
+        <v>3986038.475139413</v>
+      </c>
+      <c r="I184">
+        <v>1115761.985762824</v>
+      </c>
+      <c r="J184">
+        <v>4842103.671850358</v>
+      </c>
+      <c r="K184">
+        <v>3987519.964475057</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11">
+      <c r="A185">
+        <v>5</v>
+      </c>
+      <c r="B185" t="s">
+        <v>12</v>
+      </c>
+      <c r="C185" t="s">
+        <v>16</v>
+      </c>
+      <c r="D185" t="s">
+        <v>18</v>
+      </c>
+      <c r="E185">
+        <v>176.142</v>
+      </c>
+      <c r="F185">
+        <v>1116421.52429985</v>
+      </c>
+      <c r="G185">
+        <v>4841413.290044364</v>
+      </c>
+      <c r="H185">
+        <v>3986056.595959293</v>
+      </c>
+      <c r="I185">
+        <v>1115813.80385639</v>
+      </c>
+      <c r="J185">
+        <v>4842055.020268315</v>
+      </c>
+      <c r="K185">
+        <v>3987475.341327236</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11">
+      <c r="A186">
+        <v>5</v>
+      </c>
+      <c r="B186" t="s">
+        <v>12</v>
+      </c>
+      <c r="C186" t="s">
+        <v>16</v>
+      </c>
+      <c r="D186" t="s">
+        <v>18</v>
+      </c>
+      <c r="E186">
+        <v>177.142</v>
+      </c>
+      <c r="F186">
+        <v>1116419.846054526</v>
+      </c>
+      <c r="G186">
+        <v>4841429.802890889</v>
+      </c>
+      <c r="H186">
+        <v>3986073.684299701</v>
+      </c>
+      <c r="I186">
+        <v>1115866.897922839</v>
+      </c>
+      <c r="J186">
+        <v>4842006.36868627</v>
+      </c>
+      <c r="K186">
+        <v>3987415.569537902</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11">
+      <c r="A187">
+        <v>5</v>
+      </c>
+      <c r="B187" t="s">
+        <v>12</v>
+      </c>
+      <c r="C187" t="s">
+        <v>16</v>
+      </c>
+      <c r="D187" t="s">
+        <v>18</v>
+      </c>
+      <c r="E187">
+        <v>178.142</v>
+      </c>
+      <c r="F187">
+        <v>1116418.301784711</v>
+      </c>
+      <c r="G187">
+        <v>4841446.315737416</v>
+      </c>
+      <c r="H187">
+        <v>3986089.851501438</v>
+      </c>
+      <c r="I187">
+        <v>1115921.299381828</v>
+      </c>
+      <c r="J187">
+        <v>4841957.717104227</v>
+      </c>
+      <c r="K187">
+        <v>3987340.649107055</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11">
+      <c r="A188">
+        <v>5</v>
+      </c>
+      <c r="B188" t="s">
+        <v>12</v>
+      </c>
+      <c r="C188" t="s">
+        <v>16</v>
+      </c>
+      <c r="D188" t="s">
+        <v>18</v>
+      </c>
+      <c r="E188">
+        <v>179.142</v>
+      </c>
+      <c r="F188">
+        <v>1116416.874578092</v>
+      </c>
+      <c r="G188">
+        <v>4841462.828583944</v>
+      </c>
+      <c r="H188">
+        <v>3986105.191812794</v>
+      </c>
+      <c r="I188">
+        <v>1115977.040426696</v>
+      </c>
+      <c r="J188">
+        <v>4841909.065522184</v>
+      </c>
+      <c r="K188">
+        <v>3987250.580034696</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11">
+      <c r="A189">
+        <v>5</v>
+      </c>
+      <c r="B189" t="s">
+        <v>12</v>
+      </c>
+      <c r="C189" t="s">
+        <v>16</v>
+      </c>
+      <c r="D189" t="s">
+        <v>18</v>
+      </c>
+      <c r="E189">
+        <v>180.142</v>
+      </c>
+      <c r="F189">
+        <v>1116415.550365641</v>
+      </c>
+      <c r="G189">
+        <v>4841479.341430469</v>
+      </c>
+      <c r="H189">
+        <v>3986119.785718508</v>
+      </c>
+      <c r="I189">
+        <v>1116034.154043514</v>
+      </c>
+      <c r="J189">
+        <v>4841860.41394014</v>
+      </c>
+      <c r="K189">
+        <v>3987145.362320823</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11">
+      <c r="A190">
+        <v>5</v>
+      </c>
+      <c r="B190" t="s">
+        <v>12</v>
+      </c>
+      <c r="C190" t="s">
+        <v>16</v>
+      </c>
+      <c r="D190" t="s">
+        <v>18</v>
+      </c>
+      <c r="E190">
+        <v>181.142</v>
+      </c>
+      <c r="F190">
+        <v>1116414.317335567</v>
+      </c>
+      <c r="G190">
+        <v>4841495.854276996</v>
+      </c>
+      <c r="H190">
+        <v>3986133.702495771</v>
+      </c>
+      <c r="I190">
+        <v>1116092.674030602</v>
+      </c>
+      <c r="J190">
+        <v>4841811.762358095</v>
+      </c>
+      <c r="K190">
+        <v>3987024.995965437</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11">
+      <c r="A191">
+        <v>5</v>
+      </c>
+      <c r="B191" t="s">
+        <v>12</v>
+      </c>
+      <c r="C191" t="s">
+        <v>16</v>
+      </c>
+      <c r="D191" t="s">
+        <v>18</v>
+      </c>
+      <c r="E191">
+        <v>182.142</v>
+      </c>
+      <c r="F191">
+        <v>1116413.165488351</v>
+      </c>
+      <c r="G191">
+        <v>4841512.367123523</v>
+      </c>
+      <c r="H191">
+        <v>3986147.002203127</v>
+      </c>
+      <c r="I191">
+        <v>1116152.635018534</v>
+      </c>
+      <c r="J191">
+        <v>4841763.110776052</v>
+      </c>
+      <c r="K191">
+        <v>3986889.480968538</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11">
+      <c r="A192">
+        <v>5</v>
+      </c>
+      <c r="B192" t="s">
+        <v>12</v>
+      </c>
+      <c r="C192" t="s">
+        <v>16</v>
+      </c>
+      <c r="D192" t="s">
+        <v>18</v>
+      </c>
+      <c r="E192">
+        <v>183.142</v>
+      </c>
+      <c r="F192">
+        <v>1116412.08629444</v>
+      </c>
+      <c r="G192">
+        <v>4841528.879970049</v>
+      </c>
+      <c r="H192">
+        <v>3986159.737246857</v>
+      </c>
+      <c r="I192">
+        <v>1116214.072490632</v>
+      </c>
+      <c r="J192">
+        <v>4841714.459194009</v>
+      </c>
+      <c r="K192">
+        <v>3986738.817330125</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11">
+      <c r="A193">
+        <v>5</v>
+      </c>
+      <c r="B193" t="s">
+        <v>12</v>
+      </c>
+      <c r="C193" t="s">
+        <v>16</v>
+      </c>
+      <c r="D193" t="s">
+        <v>18</v>
+      </c>
+      <c r="E193">
+        <v>184.142</v>
+      </c>
+      <c r="F193">
+        <v>1116411.072427744</v>
+      </c>
+      <c r="G193">
+        <v>4841545.392816576</v>
+      </c>
+      <c r="H193">
+        <v>3986171.953628194</v>
+      </c>
+      <c r="I193">
+        <v>1116277.022803958</v>
+      </c>
+      <c r="J193">
+        <v>4841665.807611966</v>
+      </c>
+      <c r="K193">
+        <v>3986573.005050201</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11">
+      <c r="A194">
+        <v>5</v>
+      </c>
+      <c r="B194" t="s">
+        <v>12</v>
+      </c>
+      <c r="C194" t="s">
+        <v>16</v>
+      </c>
+      <c r="D194" t="s">
+        <v>18</v>
+      </c>
+      <c r="E194">
+        <v>185.142</v>
+      </c>
+      <c r="F194">
+        <v>1116410.117555872</v>
+      </c>
+      <c r="G194">
+        <v>4841561.905663102</v>
+      </c>
+      <c r="H194">
+        <v>3986183.691946345</v>
+      </c>
+      <c r="I194">
+        <v>1116341.523210837</v>
+      </c>
+      <c r="J194">
+        <v>4841617.156029921</v>
+      </c>
+      <c r="K194">
+        <v>3986392.044128762</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11">
+      <c r="A195">
+        <v>5</v>
+      </c>
+      <c r="B195" t="s">
+        <v>12</v>
+      </c>
+      <c r="C195" t="s">
+        <v>16</v>
+      </c>
+      <c r="D195" t="s">
+        <v>18</v>
+      </c>
+      <c r="E195">
+        <v>186.142</v>
+      </c>
+      <c r="F195">
+        <v>1116409.216173369</v>
+      </c>
+      <c r="G195">
+        <v>4841578.418509629</v>
+      </c>
+      <c r="H195">
+        <v>3986194.988212563</v>
+      </c>
+      <c r="I195">
+        <v>1116407.611880895</v>
+      </c>
+      <c r="J195">
+        <v>4841568.504447877</v>
+      </c>
+      <c r="K195">
+        <v>3986195.934565811</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11">
+      <c r="A196">
+        <v>5</v>
+      </c>
+      <c r="B196" t="s">
+        <v>12</v>
+      </c>
+      <c r="C196" t="s">
+        <v>16</v>
+      </c>
+      <c r="D196" t="s">
+        <v>18</v>
+      </c>
+      <c r="E196">
+        <v>187.142</v>
+      </c>
+      <c r="F196">
+        <v>1116408.363467923</v>
+      </c>
+      <c r="G196">
+        <v>4841594.931356155</v>
+      </c>
+      <c r="H196">
+        <v>3986205.874516406</v>
+      </c>
+      <c r="I196">
+        <v>1116475.327923654</v>
+      </c>
+      <c r="J196">
+        <v>4841519.852865834</v>
+      </c>
+      <c r="K196">
+        <v>3985984.676361347</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11">
+      <c r="A197">
+        <v>5</v>
+      </c>
+      <c r="B197" t="s">
+        <v>12</v>
+      </c>
+      <c r="C197" t="s">
+        <v>16</v>
+      </c>
+      <c r="D197" t="s">
+        <v>18</v>
+      </c>
+      <c r="E197">
+        <v>188.142</v>
+      </c>
+      <c r="F197">
+        <v>1116407.555212097</v>
+      </c>
+      <c r="G197">
+        <v>4841611.444202681</v>
+      </c>
+      <c r="H197">
+        <v>3986216.379575292</v>
+      </c>
+      <c r="I197">
+        <v>1116544.711411668</v>
+      </c>
+      <c r="J197">
+        <v>4841471.201283791</v>
+      </c>
+      <c r="K197">
+        <v>3985758.26951537</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11">
+      <c r="A198">
+        <v>5</v>
+      </c>
+      <c r="B198" t="s">
+        <v>12</v>
+      </c>
+      <c r="C198" t="s">
+        <v>16</v>
+      </c>
+      <c r="D198" t="s">
+        <v>18</v>
+      </c>
+      <c r="E198">
+        <v>189.142</v>
+      </c>
+      <c r="F198">
+        <v>1116406.78767503</v>
+      </c>
+      <c r="G198">
+        <v>4841627.957049209</v>
+      </c>
+      <c r="H198">
+        <v>3986226.529191029</v>
+      </c>
+      <c r="I198">
+        <v>1116615.803404242</v>
+      </c>
+      <c r="J198">
+        <v>4841422.549701747</v>
+      </c>
+      <c r="K198">
+        <v>3985516.71402788</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11">
+      <c r="A199">
+        <v>5</v>
+      </c>
+      <c r="B199" t="s">
+        <v>12</v>
+      </c>
+      <c r="C199" t="s">
+        <v>16</v>
+      </c>
+      <c r="D199" t="s">
+        <v>18</v>
+      </c>
+      <c r="E199">
+        <v>190.142</v>
+      </c>
+      <c r="F199">
+        <v>1116406.057549896</v>
+      </c>
+      <c r="G199">
+        <v>4841644.469895735</v>
+      </c>
+      <c r="H199">
+        <v>3986236.346631626</v>
+      </c>
+      <c r="I199">
+        <v>1116688.645971731</v>
+      </c>
+      <c r="J199">
+        <v>4841373.898119703</v>
+      </c>
+      <c r="K199">
+        <v>3985260.009898877</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11">
+      <c r="A200">
+        <v>5</v>
+      </c>
+      <c r="B200" t="s">
+        <v>12</v>
+      </c>
+      <c r="C200" t="s">
+        <v>16</v>
+      </c>
+      <c r="D200" t="s">
+        <v>18</v>
+      </c>
+      <c r="E200">
+        <v>191.142</v>
+      </c>
+      <c r="F200">
+        <v>1116405.361893912</v>
+      </c>
+      <c r="G200">
+        <v>4841660.982742261</v>
+      </c>
+      <c r="H200">
+        <v>3986245.852952556</v>
+      </c>
+      <c r="I200">
+        <v>1116763.28222043</v>
+      </c>
+      <c r="J200">
+        <v>4841325.246537659</v>
+      </c>
+      <c r="K200">
+        <v>3984988.157128361</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11">
+      <c r="A201">
+        <v>5</v>
+      </c>
+      <c r="B201" t="s">
+        <v>12</v>
+      </c>
+      <c r="C201" t="s">
+        <v>16</v>
+      </c>
+      <c r="D201" t="s">
+        <v>18</v>
+      </c>
+      <c r="E201">
+        <v>192.142</v>
+      </c>
+      <c r="F201">
+        <v>1116404.698078392</v>
+      </c>
+      <c r="G201">
+        <v>4841677.495588788</v>
+      </c>
+      <c r="H201">
+        <v>3986255.067268692</v>
+      </c>
+      <c r="I201">
+        <v>1116839.756318088</v>
+      </c>
+      <c r="J201">
+        <v>4841276.594955617</v>
+      </c>
+      <c r="K201">
+        <v>3984701.155716331</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11">
+      <c r="A202">
+        <v>5</v>
+      </c>
+      <c r="B202" t="s">
+        <v>12</v>
+      </c>
+      <c r="C202" t="s">
+        <v>16</v>
+      </c>
+      <c r="D202" t="s">
+        <v>18</v>
+      </c>
+      <c r="E202">
+        <v>193.142</v>
+      </c>
+      <c r="F202">
+        <v>1116404.063746928</v>
+      </c>
+      <c r="G202">
+        <v>4841694.008435315</v>
+      </c>
+      <c r="H202">
+        <v>3986264.006985683</v>
+      </c>
+      <c r="I202">
+        <v>1116918.113520047</v>
+      </c>
+      <c r="J202">
+        <v>4841227.943373572</v>
+      </c>
+      <c r="K202">
+        <v>3984399.00566279</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11">
+      <c r="A203">
+        <v>5</v>
+      </c>
+      <c r="B203" t="s">
+        <v>12</v>
+      </c>
+      <c r="C203" t="s">
+        <v>16</v>
+      </c>
+      <c r="D203" t="s">
+        <v>18</v>
+      </c>
+      <c r="E203">
+        <v>194.142</v>
+      </c>
+      <c r="F203">
+        <v>1116403.456780183</v>
+      </c>
+      <c r="G203">
+        <v>4841710.521281841</v>
+      </c>
+      <c r="H203">
+        <v>3986272.687997853</v>
+      </c>
+      <c r="I203">
+        <v>1116998.400196017</v>
+      </c>
+      <c r="J203">
+        <v>4841179.291791528</v>
+      </c>
+      <c r="K203">
+        <v>3984081.706967734</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11">
+      <c r="A204">
+        <v>5</v>
+      </c>
+      <c r="B204" t="s">
+        <v>12</v>
+      </c>
+      <c r="C204" t="s">
+        <v>16</v>
+      </c>
+      <c r="D204" t="s">
+        <v>18</v>
+      </c>
+      <c r="E204">
+        <v>195.142</v>
+      </c>
+      <c r="F204">
+        <v>1116402.875266089</v>
+      </c>
+      <c r="G204">
+        <v>4841727.034128368</v>
+      </c>
+      <c r="H204">
+        <v>3986281.124858262</v>
+      </c>
+      <c r="I204">
+        <v>1117080.66385752</v>
+      </c>
+      <c r="J204">
+        <v>4841130.640209485</v>
+      </c>
+      <c r="K204">
+        <v>3983749.259631166</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11">
+      <c r="A205">
+        <v>5</v>
+      </c>
+      <c r="B205" t="s">
+        <v>12</v>
+      </c>
+      <c r="C205" t="s">
+        <v>16</v>
+      </c>
+      <c r="D205" t="s">
+        <v>18</v>
+      </c>
+      <c r="E205">
+        <v>196.142</v>
+      </c>
+      <c r="F205">
+        <v>1116402.317474497</v>
+      </c>
+      <c r="G205">
+        <v>4841743.546974894</v>
+      </c>
+      <c r="H205">
+        <v>3986289.330925501</v>
+      </c>
+      <c r="I205">
+        <v>1117164.953186007</v>
+      </c>
+      <c r="J205">
+        <v>4841081.98862744</v>
+      </c>
+      <c r="K205">
+        <v>3983401.663653085</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11">
+      <c r="A206">
+        <v>5</v>
+      </c>
+      <c r="B206" t="s">
+        <v>12</v>
+      </c>
+      <c r="C206" t="s">
+        <v>16</v>
+      </c>
+      <c r="D206" t="s">
+        <v>18</v>
+      </c>
+      <c r="E206">
+        <v>197.142</v>
+      </c>
+      <c r="F206">
+        <v>1116401.781835518</v>
+      </c>
+      <c r="G206">
+        <v>4841760.05982142</v>
+      </c>
+      <c r="H206">
+        <v>3986297.318490932</v>
+      </c>
+      <c r="I206">
+        <v>1117251.318061662</v>
+      </c>
+      <c r="J206">
+        <v>4841033.337045398</v>
+      </c>
+      <c r="K206">
+        <v>3983038.919033491</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11">
+      <c r="A207">
+        <v>5</v>
+      </c>
+      <c r="B207" t="s">
+        <v>12</v>
+      </c>
+      <c r="C207" t="s">
+        <v>16</v>
+      </c>
+      <c r="D207" t="s">
+        <v>18</v>
+      </c>
+      <c r="E207">
+        <v>198.142</v>
+      </c>
+      <c r="F207">
+        <v>1116401.266920931</v>
+      </c>
+      <c r="G207">
+        <v>4841776.572667947</v>
+      </c>
+      <c r="H207">
+        <v>3986305.098889427</v>
+      </c>
+      <c r="I207">
+        <v>1117339.809592927</v>
+      </c>
+      <c r="J207">
+        <v>4840984.685463354</v>
+      </c>
+      <c r="K207">
+        <v>3982661.025772383</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11">
+      <c r="A208">
+        <v>5</v>
+      </c>
+      <c r="B208" t="s">
+        <v>12</v>
+      </c>
+      <c r="C208" t="s">
+        <v>16</v>
+      </c>
+      <c r="D208" t="s">
+        <v>18</v>
+      </c>
+      <c r="E208">
+        <v>199.142</v>
+      </c>
+      <c r="F208">
+        <v>1116400.771428165</v>
+      </c>
+      <c r="G208">
+        <v>4841793.085514474</v>
+      </c>
+      <c r="H208">
+        <v>3986312.682596114</v>
+      </c>
+      <c r="I208">
+        <v>1117430.480146738</v>
+      </c>
+      <c r="J208">
+        <v>4840936.03388131</v>
+      </c>
+      <c r="K208">
+        <v>3982267.983869763</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11">
+      <c r="A209">
+        <v>5</v>
+      </c>
+      <c r="B209" t="s">
+        <v>12</v>
+      </c>
+      <c r="C209" t="s">
+        <v>16</v>
+      </c>
+      <c r="D209" t="s">
+        <v>18</v>
+      </c>
+      <c r="E209">
+        <v>200.142</v>
+      </c>
+      <c r="F209">
+        <v>1116400.294166435</v>
+      </c>
+      <c r="G209">
+        <v>4841809.598361</v>
+      </c>
+      <c r="H209">
+        <v>3986320.079311178</v>
+      </c>
+      <c r="I209">
+        <v>1117523.383379522</v>
+      </c>
+      <c r="J209">
+        <v>4840887.382299266</v>
+      </c>
+      <c r="K209">
+        <v>3981859.79332563</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11">
+      <c r="A210">
+        <v>5</v>
+      </c>
+      <c r="B210" t="s">
+        <v>12</v>
+      </c>
+      <c r="C210" t="s">
+        <v>16</v>
+      </c>
+      <c r="D210" t="s">
+        <v>18</v>
+      </c>
+      <c r="E210">
+        <v>201.142</v>
+      </c>
+      <c r="F210">
+        <v>1116399.834044706</v>
+      </c>
+      <c r="G210">
+        <v>4841826.111207527</v>
+      </c>
+      <c r="H210">
+        <v>3986327.298034465</v>
+      </c>
+      <c r="I210">
+        <v>1117618.574268943</v>
+      </c>
+      <c r="J210">
+        <v>4840838.730717223</v>
+      </c>
+      <c r="K210">
+        <v>3981436.454139983</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11">
+      <c r="A211">
+        <v>5</v>
+      </c>
+      <c r="B211" t="s">
+        <v>12</v>
+      </c>
+      <c r="C211" t="s">
+        <v>16</v>
+      </c>
+      <c r="D211" t="s">
+        <v>18</v>
+      </c>
+      <c r="E211">
+        <v>202.142</v>
+      </c>
+      <c r="F211">
+        <v>1116399.390061203</v>
+      </c>
+      <c r="G211">
+        <v>4841842.624054053</v>
+      </c>
+      <c r="H211">
+        <v>3986334.347131327</v>
+      </c>
+      <c r="I211">
+        <v>1117716.109146442</v>
+      </c>
+      <c r="J211">
+        <v>4840790.07913518</v>
+      </c>
+      <c r="K211">
+        <v>3980997.966312824</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11">
+      <c r="A212">
+        <v>5</v>
+      </c>
+      <c r="B212" t="s">
+        <v>12</v>
+      </c>
+      <c r="C212" t="s">
+        <v>16</v>
+      </c>
+      <c r="D212" t="s">
+        <v>18</v>
+      </c>
+      <c r="E212">
+        <v>203.142</v>
+      </c>
+      <c r="F212">
+        <v>1116398.961294234</v>
+      </c>
+      <c r="G212">
+        <v>4841859.13690058</v>
+      </c>
+      <c r="H212">
+        <v>3986341.234390886</v>
+      </c>
+      <c r="I212">
+        <v>1117816.045730569</v>
+      </c>
+      <c r="J212">
+        <v>4840741.427553136</v>
+      </c>
+      <c r="K212">
+        <v>3980544.329844152</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11">
+      <c r="A213">
+        <v>5</v>
+      </c>
+      <c r="B213" t="s">
+        <v>12</v>
+      </c>
+      <c r="C213" t="s">
+        <v>16</v>
+      </c>
+      <c r="D213" t="s">
+        <v>18</v>
+      </c>
+      <c r="E213">
+        <v>204.142</v>
+      </c>
+      <c r="F213">
+        <v>1116398.546894151</v>
+      </c>
+      <c r="G213">
+        <v>4841875.649747107</v>
+      </c>
+      <c r="H213">
+        <v>3986347.967077781</v>
+      </c>
+      <c r="I213">
+        <v>1117918.443161141</v>
+      </c>
+      <c r="J213">
+        <v>4840692.775971091</v>
+      </c>
+      <c r="K213">
+        <v>3980075.544733966</v>
       </c>
     </row>
   </sheetData>
